--- a/b_excel_automation/주문목록20221112.xlsx
+++ b/b_excel_automation/주문목록20221112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ocean\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeongrok/git/python/fastcampus-python-automation/b_excel_automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BAFACD-4A8C-4848-9A8C-8833D669C7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9025D4C-6117-BE45-A9BA-9252A9B32171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27690" yWindow="1170" windowWidth="26190" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendRequest" sheetId="1" r:id="rId1"/>
@@ -2208,9 +2208,6 @@
     <t>551915</t>
   </si>
   <si>
-    <t>이노쉐이드 손거울</t>
-  </si>
-  <si>
     <t>애니웨이 살균 소독제 1L</t>
   </si>
   <si>
@@ -2503,6 +2500,10 @@
   </si>
   <si>
     <t>미니설 가는 치실</t>
+  </si>
+  <si>
+    <t>[특가] 이노쉐이드 손거울</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3647,26 +3648,26 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="36" bestFit="1" customWidth="1"/>
   </cols>
@@ -3776,7 +3777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="28">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>395</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>696</v>
+        <v>794</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="6">
@@ -3842,7 +3843,7 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="22.5">
+    <row r="5" spans="1:24" ht="28">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>396</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>31</v>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="X5" s="10"/>
     </row>
-    <row r="6" spans="1:24" ht="22.5">
+    <row r="6" spans="1:24" ht="28">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>397</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>35</v>
@@ -3978,7 +3979,7 @@
       </c>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="28">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
@@ -4000,7 +4001,7 @@
         <v>398</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11">
@@ -4044,7 +4045,7 @@
       </c>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="28">
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>399</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6">
@@ -4112,7 +4113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="22.5">
+    <row r="9" spans="1:24" ht="28">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>400</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>47</v>
@@ -4180,7 +4181,7 @@
       </c>
       <c r="X9" s="10"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="28">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>401</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6">
@@ -4246,7 +4247,7 @@
       </c>
       <c r="X10" s="5"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="28">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>603</v>
@@ -4266,7 +4267,7 @@
         <v>402</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6">
@@ -4308,7 +4309,7 @@
       </c>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="28">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>604</v>
@@ -4328,7 +4329,7 @@
         <v>403</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6">
@@ -4370,7 +4371,7 @@
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" ht="33.75">
+    <row r="13" spans="1:24" ht="42">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>404</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>56</v>
@@ -4438,7 +4439,7 @@
       </c>
       <c r="X13" s="10"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="28">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>405</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6">
@@ -4504,7 +4505,7 @@
       </c>
       <c r="X14" s="5"/>
     </row>
-    <row r="15" spans="1:24" ht="22.5">
+    <row r="15" spans="1:24" ht="28">
       <c r="A15" s="14" t="s">
         <v>61</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>406</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J15" s="10" t="s">
         <v>63</v>
@@ -4572,7 +4573,7 @@
       </c>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="28">
       <c r="A16" s="13" t="s">
         <v>65</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>407</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="6">
@@ -4638,7 +4639,7 @@
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" ht="28">
       <c r="A17" s="14" t="s">
         <v>68</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>408</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11">
@@ -4704,7 +4705,7 @@
       </c>
       <c r="X17" s="10"/>
     </row>
-    <row r="18" spans="1:24" ht="22.5">
+    <row r="18" spans="1:24" ht="28">
       <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>409</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>72</v>
@@ -4774,7 +4775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" ht="28">
       <c r="A19" s="14" t="s">
         <v>75</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>410</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="11">
@@ -4840,7 +4841,7 @@
       </c>
       <c r="X19" s="10"/>
     </row>
-    <row r="20" spans="1:24" ht="22.5">
+    <row r="20" spans="1:24" ht="28">
       <c r="A20" s="13" t="s">
         <v>77</v>
       </c>
@@ -4862,7 +4863,7 @@
         <v>411</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>79</v>
@@ -4908,7 +4909,7 @@
       </c>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="1:24" ht="56.25">
+    <row r="21" spans="1:24" ht="70">
       <c r="A21" s="14" t="s">
         <v>81</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>412</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>83</v>
@@ -4978,7 +4979,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" ht="28">
       <c r="A22" s="18" t="s">
         <v>86</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>413</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="6">
@@ -5046,7 +5047,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" ht="28">
       <c r="A23" s="20"/>
       <c r="B23" s="3" t="s">
         <v>615</v>
@@ -5066,7 +5067,7 @@
         <v>414</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="6">
@@ -5110,7 +5111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" ht="28">
       <c r="A24" s="19"/>
       <c r="B24" s="3" t="s">
         <v>616</v>
@@ -5130,7 +5131,7 @@
         <v>415</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="6">
@@ -5174,7 +5175,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" ht="28">
       <c r="A25" s="14" t="s">
         <v>92</v>
       </c>
@@ -5196,7 +5197,7 @@
         <v>416</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="11">
@@ -5242,7 +5243,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="22.5">
+    <row r="26" spans="1:24" ht="28">
       <c r="A26" s="13" t="s">
         <v>96</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>417</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>63</v>
@@ -5312,7 +5313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="45">
+    <row r="27" spans="1:24" ht="56">
       <c r="A27" s="14" t="s">
         <v>98</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>418</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>100</v>
@@ -5380,7 +5381,7 @@
       </c>
       <c r="X27" s="10"/>
     </row>
-    <row r="28" spans="1:24" ht="45">
+    <row r="28" spans="1:24" ht="56">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>419</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>104</v>
@@ -5448,7 +5449,7 @@
       </c>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24" ht="56.25">
+    <row r="29" spans="1:24" ht="70">
       <c r="A29" s="14" t="s">
         <v>106</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>420</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J29" s="10" t="s">
         <v>107</v>
@@ -5518,7 +5519,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="22.5">
+    <row r="30" spans="1:24" ht="28">
       <c r="A30" s="13" t="s">
         <v>110</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>421</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>111</v>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="28">
       <c r="A31" s="15" t="s">
         <v>113</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>422</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11">
@@ -5652,7 +5653,7 @@
       </c>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="45">
+    <row r="32" spans="1:24" ht="56">
       <c r="A32" s="16"/>
       <c r="B32" s="8" t="s">
         <v>624</v>
@@ -5672,7 +5673,7 @@
         <v>423</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J32" s="10" t="s">
         <v>117</v>
@@ -5716,7 +5717,7 @@
       </c>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" ht="22.5">
+    <row r="33" spans="1:24" ht="28">
       <c r="A33" s="17"/>
       <c r="B33" s="8" t="s">
         <v>625</v>
@@ -5736,7 +5737,7 @@
         <v>424</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>119</v>
@@ -5780,7 +5781,7 @@
       </c>
       <c r="X33" s="10"/>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:24" ht="28">
       <c r="A34" s="13" t="s">
         <v>120</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>425</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="6">
@@ -5846,7 +5847,7 @@
       </c>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:24" ht="28">
       <c r="A35" s="14" t="s">
         <v>122</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>426</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J35" s="10"/>
       <c r="K35" s="11">
@@ -5912,7 +5913,7 @@
       </c>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:24" ht="28">
       <c r="A36" s="13" t="s">
         <v>125</v>
       </c>
@@ -5934,7 +5935,7 @@
         <v>427</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6">
@@ -5978,7 +5979,7 @@
       </c>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24" ht="45">
+    <row r="37" spans="1:24" ht="56">
       <c r="A37" s="14" t="s">
         <v>128</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>428</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>130</v>
@@ -6046,7 +6047,7 @@
       </c>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="45">
+    <row r="38" spans="1:24" ht="56">
       <c r="A38" s="13" t="s">
         <v>132</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>429</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>133</v>
@@ -6114,7 +6115,7 @@
       </c>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:24" ht="28">
       <c r="A39" s="14" t="s">
         <v>135</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>430</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11">
@@ -6180,7 +6181,7 @@
       </c>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="22.5">
+    <row r="40" spans="1:24" ht="28">
       <c r="A40" s="18" t="s">
         <v>138</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>431</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>140</v>
@@ -6248,7 +6249,7 @@
       </c>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" ht="22.5">
+    <row r="41" spans="1:24" ht="28">
       <c r="A41" s="19"/>
       <c r="B41" s="3" t="s">
         <v>633</v>
@@ -6268,7 +6269,7 @@
         <v>432</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>143</v>
@@ -6312,7 +6313,7 @@
       </c>
       <c r="X41" s="5"/>
     </row>
-    <row r="42" spans="1:24">
+    <row r="42" spans="1:24" ht="28">
       <c r="A42" s="14" t="s">
         <v>144</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>433</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="11">
@@ -6378,7 +6379,7 @@
       </c>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="33.75">
+    <row r="43" spans="1:24" ht="42">
       <c r="A43" s="13" t="s">
         <v>147</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>434</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>149</v>
@@ -6446,7 +6447,7 @@
       </c>
       <c r="X43" s="5"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:24" ht="28">
       <c r="A44" s="14" t="s">
         <v>151</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>435</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="11">
@@ -6512,7 +6513,7 @@
       </c>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="22.5">
+    <row r="45" spans="1:24" ht="28">
       <c r="A45" s="13" t="s">
         <v>154</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>436</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>156</v>
@@ -6580,7 +6581,7 @@
       </c>
       <c r="X45" s="5"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:24" ht="28">
       <c r="A46" s="14" t="s">
         <v>158</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>437</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="11">
@@ -6646,7 +6647,7 @@
       </c>
       <c r="X46" s="10"/>
     </row>
-    <row r="47" spans="1:24" ht="56.25">
+    <row r="47" spans="1:24" ht="70">
       <c r="A47" s="13" t="s">
         <v>160</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>438</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>107</v>
@@ -6716,7 +6717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:24" ht="28">
       <c r="A48" s="14" t="s">
         <v>163</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>439</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J48" s="10"/>
       <c r="K48" s="11">
@@ -6782,7 +6783,7 @@
       </c>
       <c r="X48" s="10"/>
     </row>
-    <row r="49" spans="1:24" ht="78.75">
+    <row r="49" spans="1:24" ht="98">
       <c r="A49" s="13" t="s">
         <v>166</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>440</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>168</v>
@@ -6852,7 +6853,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
+    <row r="50" spans="1:24" ht="28">
       <c r="A50" s="14" t="s">
         <v>171</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>441</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J50" s="10"/>
       <c r="K50" s="11">
@@ -6918,7 +6919,7 @@
       </c>
       <c r="X50" s="10"/>
     </row>
-    <row r="51" spans="1:24" ht="45">
+    <row r="51" spans="1:24" ht="56">
       <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
@@ -6940,7 +6941,7 @@
         <v>442</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>175</v>
@@ -6986,7 +6987,7 @@
       </c>
       <c r="X51" s="5"/>
     </row>
-    <row r="52" spans="1:24" ht="22.5">
+    <row r="52" spans="1:24" ht="28">
       <c r="A52" s="14" t="s">
         <v>177</v>
       </c>
@@ -7008,7 +7009,7 @@
         <v>443</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>35</v>
@@ -7054,7 +7055,7 @@
       </c>
       <c r="X52" s="10"/>
     </row>
-    <row r="53" spans="1:24" ht="22.5">
+    <row r="53" spans="1:24" ht="28">
       <c r="A53" s="13" t="s">
         <v>179</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>444</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>111</v>
@@ -7122,7 +7123,7 @@
       </c>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5">
+    <row r="54" spans="1:24" ht="28">
       <c r="A54" s="14" t="s">
         <v>181</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>445</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>183</v>
@@ -7190,7 +7191,7 @@
       </c>
       <c r="X54" s="10"/>
     </row>
-    <row r="55" spans="1:24" ht="22.5">
+    <row r="55" spans="1:24" ht="28">
       <c r="A55" s="13" t="s">
         <v>185</v>
       </c>
@@ -7212,7 +7213,7 @@
         <v>446</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>35</v>
@@ -7258,7 +7259,7 @@
       </c>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" spans="1:24">
+    <row r="56" spans="1:24" ht="28">
       <c r="A56" s="14" t="s">
         <v>187</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>447</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J56" s="10"/>
       <c r="K56" s="11">
@@ -7324,7 +7325,7 @@
       </c>
       <c r="X56" s="10"/>
     </row>
-    <row r="57" spans="1:24">
+    <row r="57" spans="1:24" ht="28">
       <c r="A57" s="13" t="s">
         <v>190</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>448</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="6">
@@ -7390,7 +7391,7 @@
       </c>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" ht="33.75">
+    <row r="58" spans="1:24" ht="42">
       <c r="A58" s="14" t="s">
         <v>192</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>449</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>193</v>
@@ -7458,7 +7459,7 @@
       </c>
       <c r="X58" s="10"/>
     </row>
-    <row r="59" spans="1:24">
+    <row r="59" spans="1:24" ht="28">
       <c r="A59" s="13" t="s">
         <v>195</v>
       </c>
@@ -7526,7 +7527,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="22.5">
+    <row r="60" spans="1:24" ht="28">
       <c r="A60" s="14" t="s">
         <v>199</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>451</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>201</v>
@@ -7594,7 +7595,7 @@
       </c>
       <c r="X60" s="10"/>
     </row>
-    <row r="61" spans="1:24">
+    <row r="61" spans="1:24" ht="28">
       <c r="A61" s="13" t="s">
         <v>203</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>452</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="6">
@@ -7660,7 +7661,7 @@
       </c>
       <c r="X61" s="5"/>
     </row>
-    <row r="62" spans="1:24" ht="22.5">
+    <row r="62" spans="1:24" ht="28">
       <c r="A62" s="14" t="s">
         <v>205</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>453</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J62" s="10" t="s">
         <v>207</v>
@@ -7730,7 +7731,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" ht="28">
       <c r="A63" s="13" t="s">
         <v>209</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>454</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="6">
@@ -7796,7 +7797,7 @@
       </c>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24" ht="33.75">
+    <row r="64" spans="1:24" ht="42">
       <c r="A64" s="15" t="s">
         <v>212</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>455</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>149</v>
@@ -7864,7 +7865,7 @@
       </c>
       <c r="X64" s="10"/>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" ht="28">
       <c r="A65" s="16"/>
       <c r="B65" s="8" t="s">
         <v>657</v>
@@ -7884,7 +7885,7 @@
         <v>456</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="11">
@@ -7926,7 +7927,7 @@
       </c>
       <c r="X65" s="10"/>
     </row>
-    <row r="66" spans="1:24" ht="33.75">
+    <row r="66" spans="1:24" ht="42">
       <c r="A66" s="17"/>
       <c r="B66" s="8" t="s">
         <v>658</v>
@@ -7946,7 +7947,7 @@
         <v>457</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J66" s="10" t="s">
         <v>215</v>
@@ -7990,7 +7991,7 @@
       </c>
       <c r="X66" s="10"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="28">
       <c r="A67" s="13" t="s">
         <v>216</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>458</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="6">
@@ -8058,7 +8059,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="33.75">
+    <row r="68" spans="1:24" ht="42">
       <c r="A68" s="14" t="s">
         <v>219</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>459</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>221</v>
@@ -8126,7 +8127,7 @@
       </c>
       <c r="X68" s="10"/>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" ht="28">
       <c r="A69" s="13" t="s">
         <v>223</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>460</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="6">
@@ -8192,7 +8193,7 @@
       </c>
       <c r="X69" s="5"/>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" ht="28">
       <c r="A70" s="14" t="s">
         <v>226</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>461</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70" s="11">
@@ -8258,7 +8259,7 @@
       </c>
       <c r="X70" s="10"/>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" ht="28">
       <c r="A71" s="13" t="s">
         <v>229</v>
       </c>
@@ -8280,7 +8281,7 @@
         <v>462</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="6">
@@ -8324,7 +8325,7 @@
       </c>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" ht="28">
       <c r="A72" s="14" t="s">
         <v>232</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>463</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="11">
@@ -8390,7 +8391,7 @@
       </c>
       <c r="X72" s="10"/>
     </row>
-    <row r="73" spans="1:24" ht="22.5">
+    <row r="73" spans="1:24" ht="28">
       <c r="A73" s="13" t="s">
         <v>235</v>
       </c>
@@ -8412,7 +8413,7 @@
         <v>464</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>35</v>
@@ -8458,7 +8459,7 @@
       </c>
       <c r="X73" s="5"/>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" ht="28">
       <c r="A74" s="14" t="s">
         <v>237</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>465</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="11">
@@ -8524,7 +8525,7 @@
       </c>
       <c r="X74" s="10"/>
     </row>
-    <row r="75" spans="1:24" ht="22.5">
+    <row r="75" spans="1:24" ht="28">
       <c r="A75" s="13" t="s">
         <v>239</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>466</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>241</v>
@@ -8592,7 +8593,7 @@
       </c>
       <c r="X75" s="5"/>
     </row>
-    <row r="76" spans="1:24" ht="22.5">
+    <row r="76" spans="1:24" ht="28">
       <c r="A76" s="15" t="s">
         <v>243</v>
       </c>
@@ -8614,7 +8615,7 @@
         <v>467</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>245</v>
@@ -8660,7 +8661,7 @@
       </c>
       <c r="X76" s="10"/>
     </row>
-    <row r="77" spans="1:24" ht="22.5">
+    <row r="77" spans="1:24" ht="28">
       <c r="A77" s="16"/>
       <c r="B77" s="8" t="s">
         <v>669</v>
@@ -8680,7 +8681,7 @@
         <v>468</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J77" s="10" t="s">
         <v>247</v>
@@ -8724,7 +8725,7 @@
       </c>
       <c r="X77" s="10"/>
     </row>
-    <row r="78" spans="1:24">
+    <row r="78" spans="1:24" ht="28">
       <c r="A78" s="17"/>
       <c r="B78" s="8" t="s">
         <v>670</v>
@@ -8744,7 +8745,7 @@
         <v>469</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78" s="11">
@@ -8786,7 +8787,7 @@
       </c>
       <c r="X78" s="10"/>
     </row>
-    <row r="79" spans="1:24">
+    <row r="79" spans="1:24" ht="28">
       <c r="A79" s="18" t="s">
         <v>248</v>
       </c>
@@ -8808,7 +8809,7 @@
         <v>470</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="6">
@@ -8852,7 +8853,7 @@
       </c>
       <c r="X79" s="5"/>
     </row>
-    <row r="80" spans="1:24" ht="22.5">
+    <row r="80" spans="1:24" ht="28">
       <c r="A80" s="19"/>
       <c r="B80" s="3" t="s">
         <v>672</v>
@@ -8872,7 +8873,7 @@
         <v>471</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>251</v>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="X80" s="5"/>
     </row>
-    <row r="81" spans="1:24" ht="45">
+    <row r="81" spans="1:24" ht="56">
       <c r="A81" s="14" t="s">
         <v>252</v>
       </c>
@@ -8938,7 +8939,7 @@
         <v>472</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="J81" s="10" t="s">
         <v>253</v>
@@ -8984,7 +8985,7 @@
       </c>
       <c r="X81" s="10"/>
     </row>
-    <row r="82" spans="1:24">
+    <row r="82" spans="1:24" ht="28">
       <c r="A82" s="13" t="s">
         <v>255</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>473</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J82" s="5"/>
       <c r="K82" s="6">
@@ -9052,7 +9053,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:24">
+    <row r="83" spans="1:24" ht="28">
       <c r="A83" s="14" t="s">
         <v>258</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>474</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="11">
@@ -9118,7 +9119,7 @@
       </c>
       <c r="X83" s="10"/>
     </row>
-    <row r="84" spans="1:24" ht="22.5">
+    <row r="84" spans="1:24" ht="28">
       <c r="A84" s="18" t="s">
         <v>261</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>475</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>263</v>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" ht="22.5">
+    <row r="85" spans="1:24" ht="28">
       <c r="A85" s="20"/>
       <c r="B85" s="3" t="s">
         <v>677</v>
@@ -9206,7 +9207,7 @@
         <v>476</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>266</v>
@@ -9250,7 +9251,7 @@
       </c>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" ht="45">
+    <row r="86" spans="1:24" ht="56">
       <c r="A86" s="20"/>
       <c r="B86" s="3" t="s">
         <v>678</v>
@@ -9270,7 +9271,7 @@
         <v>477</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>267</v>
@@ -9314,7 +9315,7 @@
       </c>
       <c r="X86" s="5"/>
     </row>
-    <row r="87" spans="1:24">
+    <row r="87" spans="1:24" ht="28">
       <c r="A87" s="20"/>
       <c r="B87" s="3" t="s">
         <v>679</v>
@@ -9334,7 +9335,7 @@
         <v>478</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J87" s="5"/>
       <c r="K87" s="6">
@@ -9376,7 +9377,7 @@
       </c>
       <c r="X87" s="5"/>
     </row>
-    <row r="88" spans="1:24" ht="33.75">
+    <row r="88" spans="1:24" ht="42">
       <c r="A88" s="20"/>
       <c r="B88" s="3" t="s">
         <v>680</v>
@@ -9396,7 +9397,7 @@
         <v>479</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>269</v>
@@ -9440,7 +9441,7 @@
       </c>
       <c r="X88" s="5"/>
     </row>
-    <row r="89" spans="1:24">
+    <row r="89" spans="1:24" ht="28">
       <c r="A89" s="20"/>
       <c r="B89" s="3" t="s">
         <v>681</v>
@@ -9460,7 +9461,7 @@
         <v>480</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="6">
@@ -9502,7 +9503,7 @@
       </c>
       <c r="X89" s="5"/>
     </row>
-    <row r="90" spans="1:24" ht="22.5">
+    <row r="90" spans="1:24" ht="28">
       <c r="A90" s="20"/>
       <c r="B90" s="3" t="s">
         <v>682</v>
@@ -9522,7 +9523,7 @@
         <v>481</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>245</v>
@@ -9566,7 +9567,7 @@
       </c>
       <c r="X90" s="5"/>
     </row>
-    <row r="91" spans="1:24" ht="22.5">
+    <row r="91" spans="1:24" ht="28">
       <c r="A91" s="19"/>
       <c r="B91" s="3" t="s">
         <v>683</v>
@@ -9586,7 +9587,7 @@
         <v>482</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>201</v>
@@ -9630,7 +9631,7 @@
       </c>
       <c r="X91" s="5"/>
     </row>
-    <row r="92" spans="1:24" ht="56.25">
+    <row r="92" spans="1:24" ht="70">
       <c r="A92" s="14" t="s">
         <v>272</v>
       </c>
@@ -9652,7 +9653,7 @@
         <v>483</v>
       </c>
       <c r="I92" s="9" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J92" s="10" t="s">
         <v>274</v>
@@ -9698,7 +9699,7 @@
       </c>
       <c r="X92" s="10"/>
     </row>
-    <row r="93" spans="1:24" ht="78.75">
+    <row r="93" spans="1:24" ht="98">
       <c r="A93" s="13" t="s">
         <v>276</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>484</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>277</v>
@@ -9768,7 +9769,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="56.25">
+    <row r="94" spans="1:24" ht="70">
       <c r="A94" s="14" t="s">
         <v>280</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>485</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J94" s="10" t="s">
         <v>281</v>
@@ -9838,7 +9839,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="1:24">
+    <row r="95" spans="1:24" ht="28">
       <c r="A95" s="13" t="s">
         <v>284</v>
       </c>
@@ -9860,7 +9861,7 @@
         <v>486</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="6">
@@ -9904,7 +9905,7 @@
       </c>
       <c r="X95" s="5"/>
     </row>
-    <row r="96" spans="1:24" ht="45">
+    <row r="96" spans="1:24" ht="56">
       <c r="A96" s="15" t="s">
         <v>287</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>487</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>288</v>
@@ -9972,7 +9973,7 @@
       </c>
       <c r="X96" s="10"/>
     </row>
-    <row r="97" spans="1:24" ht="45">
+    <row r="97" spans="1:24" ht="56">
       <c r="A97" s="16"/>
       <c r="B97" s="8" t="s">
         <v>689</v>
@@ -9992,7 +9993,7 @@
         <v>488</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J97" s="10" t="s">
         <v>117</v>
@@ -10036,7 +10037,7 @@
       </c>
       <c r="X97" s="10"/>
     </row>
-    <row r="98" spans="1:24" ht="45">
+    <row r="98" spans="1:24" ht="56">
       <c r="A98" s="16"/>
       <c r="B98" s="8" t="s">
         <v>690</v>
@@ -10056,7 +10057,7 @@
         <v>489</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J98" s="10" t="s">
         <v>290</v>
@@ -10100,7 +10101,7 @@
       </c>
       <c r="X98" s="10"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" ht="28">
       <c r="A99" s="16"/>
       <c r="B99" s="8" t="s">
         <v>691</v>
@@ -10120,7 +10121,7 @@
         <v>490</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="11">
@@ -10162,7 +10163,7 @@
       </c>
       <c r="X99" s="10"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" ht="28">
       <c r="A100" s="16"/>
       <c r="B100" s="8" t="s">
         <v>692</v>
@@ -10182,7 +10183,7 @@
         <v>491</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J100" s="10"/>
       <c r="K100" s="11">
@@ -10224,7 +10225,7 @@
       </c>
       <c r="X100" s="10"/>
     </row>
-    <row r="101" spans="1:24" ht="22.5">
+    <row r="101" spans="1:24" ht="28">
       <c r="A101" s="16"/>
       <c r="B101" s="8" t="s">
         <v>693</v>
@@ -10244,7 +10245,7 @@
         <v>492</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J101" s="10" t="s">
         <v>31</v>
@@ -10288,7 +10289,7 @@
       </c>
       <c r="X101" s="10"/>
     </row>
-    <row r="102" spans="1:24" ht="45">
+    <row r="102" spans="1:24" ht="56">
       <c r="A102" s="16"/>
       <c r="B102" s="8" t="s">
         <v>694</v>
@@ -10308,7 +10309,7 @@
         <v>493</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J102" s="10" t="s">
         <v>293</v>
@@ -10352,7 +10353,7 @@
       </c>
       <c r="X102" s="10"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" ht="28">
       <c r="A103" s="17"/>
       <c r="B103" s="8" t="s">
         <v>695</v>
@@ -10372,7 +10373,7 @@
         <v>494</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="11">

--- a/b_excel_automation/주문목록20221112.xlsx
+++ b/b_excel_automation/주문목록20221112.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyeongrok/git/python/fastcampus-python-automation/b_excel_automation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\fastcampus-python-automation\b_excel_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9025D4C-6117-BE45-A9BA-9252A9B32171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E75C89-73B6-492E-8D98-3045AD9AE120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2430" windowWidth="24375" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendRequest" sheetId="1" r:id="rId1"/>
@@ -3648,26 +3648,26 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="36" bestFit="1" customWidth="1"/>
   </cols>
@@ -3777,7 +3777,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="28">
+    <row r="4" spans="1:24">
       <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
@@ -3843,100 +3843,100 @@
       </c>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" spans="1:24" ht="28">
+    <row r="5" spans="1:24" ht="22.5">
       <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="B5" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="12">
-        <v>29000</v>
-      </c>
-      <c r="M5" s="12">
-        <v>24650</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
-        <v>24650</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>29000</v>
-      </c>
-      <c r="R5" s="8" t="s">
+      <c r="L5" s="7">
+        <v>16100</v>
+      </c>
+      <c r="M5" s="7">
+        <v>14160</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>14160</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>16100</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S5" s="12">
-        <v>0</v>
-      </c>
-      <c r="T5" s="12">
-        <v>0</v>
-      </c>
-      <c r="U5" s="12">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="X5" s="10"/>
+      <c r="S5" s="7">
+        <v>0</v>
+      </c>
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="7">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="X5" s="5"/>
     </row>
-    <row r="6" spans="1:24" ht="28">
+    <row r="6" spans="1:24" ht="22.5">
       <c r="A6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="K6" s="6">
         <v>1</v>
@@ -3972,36 +3972,36 @@
         <v>0</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="X6" s="5"/>
     </row>
-    <row r="7" spans="1:24" ht="28">
+    <row r="7" spans="1:24">
       <c r="A7" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>599</v>
+        <v>638</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
-        <v>398</v>
+        <v>437</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11">
@@ -4038,46 +4038,46 @@
         <v>2500</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="X7" s="10"/>
     </row>
-    <row r="8" spans="1:24" ht="28">
+    <row r="8" spans="1:24">
       <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>32400</v>
+        <v>28000</v>
       </c>
       <c r="M8" s="7">
-        <v>27540</v>
+        <v>23800</v>
       </c>
       <c r="N8" s="7">
         <v>0</v>
@@ -4086,10 +4086,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>55080</v>
+        <v>23800</v>
       </c>
       <c r="Q8" s="7">
-        <v>64800</v>
+        <v>28000</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>27</v>
@@ -4104,180 +4104,176 @@
         <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>44</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="X8" s="5"/>
     </row>
-    <row r="9" spans="1:24" ht="28">
+    <row r="9" spans="1:24">
       <c r="A9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K9" s="11">
+      <c r="B9" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="6">
         <v>1</v>
       </c>
-      <c r="L9" s="12">
-        <v>69000</v>
-      </c>
-      <c r="M9" s="12">
-        <v>58650</v>
-      </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0</v>
-      </c>
-      <c r="P9" s="12">
-        <v>58650</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>69000</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S9" s="12">
-        <v>3000</v>
-      </c>
-      <c r="T9" s="12">
-        <v>0</v>
-      </c>
-      <c r="U9" s="12">
-        <v>3000</v>
-      </c>
-      <c r="V9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="X9" s="10"/>
+      <c r="L9" s="7">
+        <v>49000</v>
+      </c>
+      <c r="M9" s="7">
+        <v>41650</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>41650</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>49000</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="7">
+        <v>0</v>
+      </c>
+      <c r="T9" s="7">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="X9" s="5"/>
     </row>
-    <row r="10" spans="1:24" ht="28">
+    <row r="10" spans="1:24">
       <c r="A10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6">
+      <c r="B10" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11">
         <v>1</v>
       </c>
-      <c r="L10" s="7">
-        <v>69800</v>
-      </c>
-      <c r="M10" s="7">
-        <v>59330</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>59330</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>69800</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="L10" s="12">
+        <v>28000</v>
+      </c>
+      <c r="M10" s="12">
+        <v>23800</v>
+      </c>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12">
+        <v>0</v>
+      </c>
+      <c r="P10" s="12">
+        <v>23800</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>28000</v>
+      </c>
+      <c r="R10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>6000</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="X10" s="5"/>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="X10" s="10"/>
     </row>
-    <row r="11" spans="1:24" ht="28">
+    <row r="11" spans="1:24">
       <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>302</v>
+        <v>378</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>402</v>
+        <v>478</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>702</v>
+        <v>777</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="6">
         <v>1</v>
       </c>
       <c r="L11" s="7">
-        <v>27000</v>
+        <v>39900</v>
       </c>
       <c r="M11" s="7">
-        <v>22950</v>
+        <v>33915</v>
       </c>
       <c r="N11" s="7">
         <v>0</v>
@@ -4286,192 +4282,194 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>22950</v>
+        <v>33915</v>
       </c>
       <c r="Q11" s="7">
-        <v>27000</v>
+        <v>39900</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S11" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T11" s="7">
         <v>0</v>
       </c>
       <c r="U11" s="7"/>
       <c r="V11" s="3" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" spans="1:24" ht="28">
+    <row r="12" spans="1:24" ht="22.5">
       <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>303</v>
+        <v>376</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="J12" s="5"/>
+        <v>775</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="K12" s="6">
         <v>1</v>
       </c>
       <c r="L12" s="7">
-        <v>12900</v>
+        <v>25400</v>
       </c>
       <c r="M12" s="7">
-        <v>10965</v>
+        <v>21590</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="O12" s="7">
-        <v>0</v>
+        <v>14025</v>
       </c>
       <c r="P12" s="7">
-        <v>10965</v>
+        <v>35615</v>
       </c>
       <c r="Q12" s="7">
-        <v>12900</v>
+        <v>41900</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S12" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7">
         <v>0</v>
       </c>
       <c r="U12" s="7"/>
       <c r="V12" s="3" t="s">
-        <v>51</v>
+        <v>264</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" spans="1:24" ht="42">
+    <row r="13" spans="1:24" ht="45">
       <c r="A13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="11">
+      <c r="B13" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="12">
-        <v>48000</v>
-      </c>
-      <c r="M13" s="12">
-        <v>40800</v>
-      </c>
-      <c r="N13" s="12">
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>40800</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>48000</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S13" s="12">
-        <v>2500</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="U13" s="12">
-        <v>2500</v>
-      </c>
-      <c r="V13" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="X13" s="10"/>
+      <c r="L13" s="7">
+        <v>29800</v>
+      </c>
+      <c r="M13" s="7">
+        <v>25330</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>25330</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>29800</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0</v>
+      </c>
+      <c r="T13" s="7">
+        <v>0</v>
+      </c>
+      <c r="U13" s="7">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="X13" s="5"/>
     </row>
-    <row r="14" spans="1:24" ht="28">
+    <row r="14" spans="1:24">
       <c r="A14" s="13" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>606</v>
+        <v>659</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>405</v>
+        <v>458</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>705</v>
+        <v>757</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="6">
         <v>1</v>
       </c>
       <c r="L14" s="7">
-        <v>28000</v>
+        <v>12900</v>
       </c>
       <c r="M14" s="7">
-        <v>23800</v>
+        <v>10965</v>
       </c>
       <c r="N14" s="7">
         <v>0</v>
@@ -4480,66 +4478,66 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>23800</v>
+        <v>10965</v>
       </c>
       <c r="Q14" s="7">
-        <v>28000</v>
+        <v>12900</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S14" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T14" s="7">
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="X14" s="5"/>
+        <v>558</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="28">
+    <row r="15" spans="1:24">
       <c r="A15" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>706</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>63</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="J15" s="10"/>
       <c r="K15" s="11">
         <v>1</v>
       </c>
       <c r="L15" s="12">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="M15" s="12">
-        <v>29665</v>
+        <v>29835</v>
       </c>
       <c r="N15" s="12">
         <v>0</v>
@@ -4548,64 +4546,66 @@
         <v>0</v>
       </c>
       <c r="P15" s="12">
-        <v>29665</v>
+        <v>29835</v>
       </c>
       <c r="Q15" s="12">
-        <v>34900</v>
+        <v>35100</v>
       </c>
       <c r="R15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S15" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T15" s="12">
         <v>0</v>
       </c>
       <c r="U15" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="X15" s="10"/>
     </row>
-    <row r="16" spans="1:24" ht="28">
+    <row r="16" spans="1:24" ht="45">
       <c r="A16" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>719</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="K16" s="6">
         <v>1</v>
       </c>
       <c r="L16" s="7">
-        <v>17000</v>
+        <v>29800</v>
       </c>
       <c r="M16" s="7">
-        <v>14450</v>
+        <v>26220</v>
       </c>
       <c r="N16" s="7">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="7">
-        <v>14450</v>
+        <v>26220</v>
       </c>
       <c r="Q16" s="7">
-        <v>17000</v>
+        <v>29800</v>
       </c>
       <c r="R16" s="3" t="s">
         <v>27</v>
@@ -4632,114 +4632,116 @@
         <v>0</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="1:24" ht="28">
+    <row r="17" spans="1:24" ht="22.5">
       <c r="A17" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11">
+      <c r="B17" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="6">
         <v>1</v>
       </c>
-      <c r="L17" s="12">
-        <v>28000</v>
-      </c>
-      <c r="M17" s="12">
-        <v>23800</v>
-      </c>
-      <c r="N17" s="12">
-        <v>0</v>
-      </c>
-      <c r="O17" s="12">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>23800</v>
-      </c>
-      <c r="Q17" s="12">
-        <v>28000</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="12">
-        <v>0</v>
-      </c>
-      <c r="T17" s="12">
-        <v>0</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="X17" s="10"/>
+      <c r="L17" s="7">
+        <v>34900</v>
+      </c>
+      <c r="M17" s="7">
+        <v>29665</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0</v>
+      </c>
+      <c r="P17" s="7">
+        <v>29665</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>34900</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" ht="28">
+    <row r="18" spans="1:24">
       <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>72</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="6">
         <v>1</v>
       </c>
       <c r="L18" s="7">
-        <v>35000</v>
+        <v>69800</v>
       </c>
       <c r="M18" s="7">
-        <v>29750</v>
+        <v>59330</v>
       </c>
       <c r="N18" s="7">
         <v>0</v>
@@ -4748,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <v>29750</v>
+        <v>59330</v>
       </c>
       <c r="Q18" s="7">
-        <v>35000</v>
+        <v>69800</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>27</v>
@@ -4763,51 +4765,51 @@
         <v>0</v>
       </c>
       <c r="U18" s="7">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>74</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="1:24" ht="28">
+    <row r="19" spans="1:24" ht="22.5">
       <c r="A19" s="14" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>710</v>
-      </c>
-      <c r="J19" s="10"/>
+        <v>752</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="K19" s="11">
         <v>1</v>
       </c>
       <c r="L19" s="12">
-        <v>27000</v>
+        <v>69000</v>
       </c>
       <c r="M19" s="12">
-        <v>22950</v>
+        <v>58650</v>
       </c>
       <c r="N19" s="12">
         <v>0</v>
@@ -4816,332 +4818,330 @@
         <v>0</v>
       </c>
       <c r="P19" s="12">
-        <v>22950</v>
+        <v>58650</v>
       </c>
       <c r="Q19" s="12">
-        <v>27000</v>
+        <v>69000</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S19" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="12">
         <v>0</v>
       </c>
       <c r="U19" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="X19" s="10"/>
+        <v>553</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="28">
+    <row r="20" spans="1:24" ht="22.5">
       <c r="A20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="B20" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="11">
         <v>1</v>
       </c>
-      <c r="L20" s="7">
-        <v>32000</v>
-      </c>
-      <c r="M20" s="7">
-        <v>27200</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <v>27200</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>32000</v>
-      </c>
-      <c r="R20" s="3" t="s">
+      <c r="L20" s="12">
+        <v>14900</v>
+      </c>
+      <c r="M20" s="12">
+        <v>12665</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>12665</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>14900</v>
+      </c>
+      <c r="R20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="X20" s="5"/>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>3000</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="X20" s="10"/>
     </row>
-    <row r="21" spans="1:24" ht="70">
+    <row r="21" spans="1:24" ht="22.5">
       <c r="A21" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="B21" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="12">
-        <v>15800</v>
-      </c>
-      <c r="M21" s="12">
-        <v>13430</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
-        <v>13430</v>
-      </c>
-      <c r="Q21" s="12">
-        <v>15800</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S21" s="12">
-        <v>3000</v>
-      </c>
-      <c r="T21" s="12">
-        <v>30000</v>
-      </c>
-      <c r="U21" s="12">
-        <v>3000</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W21" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="X21" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="L21" s="7">
+        <v>32000</v>
+      </c>
+      <c r="M21" s="7">
+        <v>27200</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="7">
+        <v>27200</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>32000</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="1:24" ht="28">
+    <row r="22" spans="1:24" ht="45">
       <c r="A22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6">
+      <c r="B22" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>787</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="11">
         <v>1</v>
       </c>
-      <c r="L22" s="7">
-        <v>32000</v>
-      </c>
-      <c r="M22" s="7">
-        <v>27200</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>27200</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>32000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="7">
-        <v>0</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="L22" s="12">
+        <v>12500</v>
+      </c>
+      <c r="M22" s="12">
+        <v>10625</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>10625</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>12500</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12">
+        <v>0</v>
+      </c>
+      <c r="U22" s="12"/>
+      <c r="V22" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="X22" s="10"/>
     </row>
-    <row r="23" spans="1:24" ht="28">
+    <row r="23" spans="1:24">
       <c r="A23" s="20"/>
-      <c r="B23" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6">
+      <c r="B23" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="7">
-        <v>25500</v>
-      </c>
-      <c r="M23" s="7">
-        <v>21670</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>21670</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>25500</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="X23" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="L23" s="12">
+        <v>42890</v>
+      </c>
+      <c r="M23" s="12">
+        <v>36457</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>36457</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>42890</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" s="12">
+        <v>3000</v>
+      </c>
+      <c r="T23" s="12">
+        <v>50000</v>
+      </c>
+      <c r="U23" s="12">
+        <v>3000</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="X23" s="10"/>
     </row>
-    <row r="24" spans="1:24" ht="28">
+    <row r="24" spans="1:24">
       <c r="A24" s="19"/>
       <c r="B24" s="3" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>715</v>
+        <v>753</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="6">
         <v>1</v>
       </c>
       <c r="L24" s="7">
-        <v>34900</v>
+        <v>32000</v>
       </c>
       <c r="M24" s="7">
-        <v>29660</v>
+        <v>27200</v>
       </c>
       <c r="N24" s="7">
         <v>0</v>
@@ -5150,272 +5150,266 @@
         <v>0</v>
       </c>
       <c r="P24" s="7">
-        <v>29660</v>
+        <v>27200</v>
       </c>
       <c r="Q24" s="7">
-        <v>34900</v>
+        <v>32000</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S24" s="7">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T24" s="7">
         <v>0</v>
       </c>
-      <c r="U24" s="7"/>
+      <c r="U24" s="7">
+        <v>3500</v>
+      </c>
       <c r="V24" s="3" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="X24" s="5" t="s">
-        <v>89</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="1:24" ht="28">
+    <row r="25" spans="1:24" ht="45">
       <c r="A25" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>716</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="11">
-        <v>1</v>
-      </c>
-      <c r="L25" s="12">
-        <v>86000</v>
-      </c>
-      <c r="M25" s="12">
-        <v>75680</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
-        <v>75680</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>86000</v>
-      </c>
-      <c r="R25" s="8" t="s">
+      <c r="B25" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="6">
+        <v>2</v>
+      </c>
+      <c r="L25" s="7">
+        <v>29800</v>
+      </c>
+      <c r="M25" s="7">
+        <v>25330</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0</v>
+      </c>
+      <c r="P25" s="7">
+        <v>50660</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>59600</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S25" s="12">
-        <v>0</v>
-      </c>
-      <c r="T25" s="12">
-        <v>0</v>
-      </c>
-      <c r="U25" s="12">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="X25" s="10" t="s">
-        <v>95</v>
-      </c>
+      <c r="S25" s="7">
+        <v>0</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="1:24" ht="28">
+    <row r="26" spans="1:24" ht="33.75">
       <c r="A26" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" s="6">
+      <c r="B26" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" s="11">
         <v>1</v>
       </c>
-      <c r="L26" s="7">
-        <v>34900</v>
-      </c>
-      <c r="M26" s="7">
-        <v>29665</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>29665</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>34900</v>
-      </c>
-      <c r="R26" s="3" t="s">
+      <c r="L26" s="12">
+        <v>48000</v>
+      </c>
+      <c r="M26" s="12">
+        <v>40800</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>40800</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>48000</v>
+      </c>
+      <c r="R26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="S26" s="7">
-        <v>3000</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0</v>
-      </c>
-      <c r="U26" s="7">
-        <v>3000</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="X26" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="S26" s="12">
+        <v>2500</v>
+      </c>
+      <c r="T26" s="12">
+        <v>0</v>
+      </c>
+      <c r="U26" s="12">
+        <v>2500</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="X26" s="10"/>
     </row>
-    <row r="27" spans="1:24" ht="56">
+    <row r="27" spans="1:24">
       <c r="A27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>718</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="B27" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6">
         <v>1</v>
       </c>
-      <c r="L27" s="12">
-        <v>19900</v>
-      </c>
-      <c r="M27" s="12">
-        <v>16900</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0</v>
-      </c>
-      <c r="P27" s="12">
-        <v>16900</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>19900</v>
-      </c>
-      <c r="R27" s="8" t="s">
+      <c r="L27" s="7">
+        <v>75000</v>
+      </c>
+      <c r="M27" s="7">
+        <v>63750</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>63750</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>75000</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S27" s="12">
-        <v>0</v>
-      </c>
-      <c r="T27" s="12">
-        <v>0</v>
-      </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="W27" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="X27" s="10"/>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" ht="56">
+    <row r="28" spans="1:24">
       <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>319</v>
+        <v>370</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>104</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="J28" s="5"/>
       <c r="K28" s="6">
         <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>29800</v>
+        <v>86000</v>
       </c>
       <c r="M28" s="7">
-        <v>26220</v>
+        <v>75680</v>
       </c>
       <c r="N28" s="7">
         <v>0</v>
@@ -5424,10 +5418,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="7">
-        <v>26220</v>
+        <v>75680</v>
       </c>
       <c r="Q28" s="7">
-        <v>29800</v>
+        <v>86000</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>27</v>
@@ -5442,48 +5436,46 @@
         <v>0</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="1:24" ht="70">
+    <row r="29" spans="1:24">
       <c r="A29" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>107</v>
-      </c>
+        <v>755</v>
+      </c>
+      <c r="J29" s="10"/>
       <c r="K29" s="11">
         <v>1</v>
       </c>
       <c r="L29" s="12">
-        <v>15800</v>
+        <v>9700</v>
       </c>
       <c r="M29" s="12">
-        <v>13430</v>
+        <v>8245</v>
       </c>
       <c r="N29" s="12">
         <v>0</v>
@@ -5492,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="12">
-        <v>13430</v>
+        <v>8245</v>
       </c>
       <c r="Q29" s="12">
-        <v>15800</v>
+        <v>9700</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>39</v>
@@ -5504,47 +5496,43 @@
         <v>3000</v>
       </c>
       <c r="T29" s="12">
-        <v>30000</v>
-      </c>
-      <c r="U29" s="12">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U29" s="12"/>
       <c r="V29" s="8" t="s">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>109</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="X29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="28">
+    <row r="30" spans="1:24" ht="22.5">
       <c r="A30" s="13" t="s">
         <v>110</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="K30" s="6">
         <v>1</v>
@@ -5580,46 +5568,48 @@
         <v>0</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>112</v>
+        <v>36</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="X30" s="5"/>
     </row>
-    <row r="31" spans="1:24" ht="28">
+    <row r="31" spans="1:24" ht="33.75">
       <c r="A31" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>722</v>
-      </c>
-      <c r="J31" s="10"/>
+        <v>754</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="K31" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31" s="12">
-        <v>20700</v>
+        <v>27900</v>
       </c>
       <c r="M31" s="12">
-        <v>17595</v>
+        <v>23715</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -5628,64 +5618,62 @@
         <v>0</v>
       </c>
       <c r="P31" s="12">
-        <v>17595</v>
+        <v>47430</v>
       </c>
       <c r="Q31" s="12">
-        <v>20700</v>
+        <v>55800</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S31" s="12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T31" s="12">
         <v>0</v>
       </c>
       <c r="U31" s="12">
-        <v>7500</v>
+        <v>9500</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="X31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="56">
+    <row r="32" spans="1:24">
       <c r="A32" s="16"/>
       <c r="B32" s="8" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>117</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="J32" s="10"/>
       <c r="K32" s="11">
         <v>1</v>
       </c>
       <c r="L32" s="12">
-        <v>12500</v>
+        <v>42900</v>
       </c>
       <c r="M32" s="12">
-        <v>10625</v>
+        <v>36465</v>
       </c>
       <c r="N32" s="12">
         <v>0</v>
@@ -5694,62 +5682,64 @@
         <v>0</v>
       </c>
       <c r="P32" s="12">
-        <v>10625</v>
+        <v>36465</v>
       </c>
       <c r="Q32" s="12">
-        <v>12500</v>
+        <v>42900</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S32" s="12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T32" s="12">
         <v>0</v>
       </c>
-      <c r="U32" s="12"/>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
       <c r="V32" s="8" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
       <c r="X32" s="10"/>
     </row>
-    <row r="33" spans="1:24" ht="28">
+    <row r="33" spans="1:24" ht="45">
       <c r="A33" s="17"/>
       <c r="B33" s="8" t="s">
-        <v>625</v>
+        <v>690</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>324</v>
+        <v>389</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>724</v>
+        <v>788</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="K33" s="11">
         <v>1</v>
       </c>
       <c r="L33" s="12">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="M33" s="12">
-        <v>20400</v>
+        <v>10625</v>
       </c>
       <c r="N33" s="12">
         <v>0</v>
@@ -5758,62 +5748,62 @@
         <v>0</v>
       </c>
       <c r="P33" s="12">
-        <v>20400</v>
+        <v>10625</v>
       </c>
       <c r="Q33" s="12">
-        <v>24000</v>
+        <v>12500</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S33" s="12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T33" s="12">
         <v>0</v>
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="8" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="X33" s="10"/>
     </row>
-    <row r="34" spans="1:24" ht="28">
+    <row r="34" spans="1:24">
       <c r="A34" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="6">
         <v>1</v>
       </c>
       <c r="L34" s="7">
-        <v>86000</v>
+        <v>17000</v>
       </c>
       <c r="M34" s="7">
-        <v>75680</v>
+        <v>14450</v>
       </c>
       <c r="N34" s="7">
         <v>0</v>
@@ -5822,10 +5812,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="7">
-        <v>75680</v>
+        <v>14450</v>
       </c>
       <c r="Q34" s="7">
-        <v>86000</v>
+        <v>17000</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>27</v>
@@ -5840,46 +5830,48 @@
         <v>0</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="X34" s="5"/>
     </row>
-    <row r="35" spans="1:24" ht="28">
+    <row r="35" spans="1:24" ht="45">
       <c r="A35" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>627</v>
+        <v>688</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="J35" s="10"/>
+        <v>786</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>288</v>
+      </c>
       <c r="K35" s="11">
         <v>1</v>
       </c>
       <c r="L35" s="12">
-        <v>42890</v>
+        <v>12500</v>
       </c>
       <c r="M35" s="12">
-        <v>36457</v>
+        <v>10625</v>
       </c>
       <c r="N35" s="12">
         <v>0</v>
@@ -5888,64 +5880,64 @@
         <v>0</v>
       </c>
       <c r="P35" s="12">
-        <v>36457</v>
+        <v>10625</v>
       </c>
       <c r="Q35" s="12">
-        <v>42890</v>
+        <v>12500</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S35" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T35" s="12">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="U35" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
       <c r="X35" s="10"/>
     </row>
-    <row r="36" spans="1:24" ht="28">
+    <row r="36" spans="1:24">
       <c r="A36" s="13" t="s">
         <v>125</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>727</v>
+        <v>751</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="6">
         <v>1</v>
       </c>
       <c r="L36" s="7">
-        <v>49000</v>
+        <v>75000</v>
       </c>
       <c r="M36" s="7">
-        <v>41650</v>
+        <v>63750</v>
       </c>
       <c r="N36" s="7">
         <v>0</v>
@@ -5954,10 +5946,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="7">
-        <v>41650</v>
+        <v>63750</v>
       </c>
       <c r="Q36" s="7">
-        <v>49000</v>
+        <v>75000</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>27</v>
@@ -5972,48 +5964,46 @@
         <v>0</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="X36" s="5"/>
     </row>
-    <row r="37" spans="1:24" ht="56">
+    <row r="37" spans="1:24">
       <c r="A37" s="14" t="s">
         <v>128</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>130</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="J37" s="10"/>
       <c r="K37" s="11">
         <v>1</v>
       </c>
       <c r="L37" s="12">
-        <v>29800</v>
+        <v>98800</v>
       </c>
       <c r="M37" s="12">
-        <v>25330</v>
+        <v>86940</v>
       </c>
       <c r="N37" s="12">
         <v>0</v>
@@ -6022,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="12">
-        <v>25330</v>
+        <v>86940</v>
       </c>
       <c r="Q37" s="12">
-        <v>29800</v>
+        <v>98800</v>
       </c>
       <c r="R37" s="8" t="s">
         <v>27</v>
@@ -6040,114 +6030,110 @@
         <v>0</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="X37" s="10"/>
     </row>
-    <row r="38" spans="1:24" ht="56">
+    <row r="38" spans="1:24">
       <c r="A38" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="B38" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11">
         <v>1</v>
       </c>
-      <c r="L38" s="7">
-        <v>29800</v>
-      </c>
-      <c r="M38" s="7">
-        <v>25330</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
-        <v>25330</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>29800</v>
-      </c>
-      <c r="R38" s="3" t="s">
+      <c r="L38" s="12">
+        <v>79800</v>
+      </c>
+      <c r="M38" s="12">
+        <v>67830</v>
+      </c>
+      <c r="N38" s="12">
+        <v>0</v>
+      </c>
+      <c r="O38" s="12">
+        <v>0</v>
+      </c>
+      <c r="P38" s="12">
+        <v>67830</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>79800</v>
+      </c>
+      <c r="R38" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S38" s="7">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="W38" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="X38" s="5"/>
+      <c r="S38" s="12">
+        <v>0</v>
+      </c>
+      <c r="T38" s="12">
+        <v>0</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="X38" s="10"/>
     </row>
-    <row r="39" spans="1:24" ht="28">
+    <row r="39" spans="1:24">
       <c r="A39" s="14" t="s">
         <v>135</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="12">
-        <v>15500</v>
+        <v>16700</v>
       </c>
       <c r="M39" s="12">
-        <v>13175</v>
+        <v>14195</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -6156,66 +6142,66 @@
         <v>0</v>
       </c>
       <c r="P39" s="12">
-        <v>26350</v>
+        <v>14195</v>
       </c>
       <c r="Q39" s="12">
-        <v>31000</v>
+        <v>16700</v>
       </c>
       <c r="R39" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S39" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T39" s="12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="U39" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="X39" s="10"/>
     </row>
-    <row r="40" spans="1:24" ht="28">
+    <row r="40" spans="1:24" ht="33.75">
       <c r="A40" s="18" t="s">
         <v>138</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="K40" s="6">
         <v>1</v>
       </c>
       <c r="L40" s="7">
-        <v>17900</v>
+        <v>27900</v>
       </c>
       <c r="M40" s="7">
-        <v>15215</v>
+        <v>23715</v>
       </c>
       <c r="N40" s="7">
         <v>0</v>
@@ -6224,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="P40" s="7">
-        <v>15215</v>
+        <v>23715</v>
       </c>
       <c r="Q40" s="7">
-        <v>17900</v>
+        <v>27900</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>27</v>
@@ -6242,110 +6228,110 @@
         <v>0</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="X40" s="5"/>
     </row>
-    <row r="41" spans="1:24" ht="28">
+    <row r="41" spans="1:24">
       <c r="A41" s="19"/>
-      <c r="B41" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="B41" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11">
         <v>1</v>
       </c>
-      <c r="L41" s="7">
-        <v>20000</v>
-      </c>
-      <c r="M41" s="7">
-        <v>17000</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7">
-        <v>0</v>
-      </c>
-      <c r="P41" s="7">
-        <v>17000</v>
-      </c>
-      <c r="Q41" s="7">
-        <v>20000</v>
-      </c>
-      <c r="R41" s="3" t="s">
+      <c r="L41" s="12">
+        <v>46500</v>
+      </c>
+      <c r="M41" s="12">
+        <v>39520</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12">
+        <v>39520</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>46500</v>
+      </c>
+      <c r="R41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S41" s="7">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7">
-        <v>0</v>
-      </c>
-      <c r="U41" s="7"/>
-      <c r="V41" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="W41" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="X41" s="5"/>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12"/>
+      <c r="V41" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="X41" s="10"/>
     </row>
-    <row r="42" spans="1:24" ht="28">
+    <row r="42" spans="1:24" ht="22.5">
       <c r="A42" s="14" t="s">
         <v>144</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="J42" s="10"/>
+        <v>724</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="K42" s="11">
         <v>1</v>
       </c>
       <c r="L42" s="12">
-        <v>28900</v>
+        <v>24000</v>
       </c>
       <c r="M42" s="12">
-        <v>24500</v>
+        <v>20400</v>
       </c>
       <c r="N42" s="12">
         <v>0</v>
@@ -6354,132 +6340,130 @@
         <v>0</v>
       </c>
       <c r="P42" s="12">
-        <v>24500</v>
+        <v>20400</v>
       </c>
       <c r="Q42" s="12">
-        <v>28900</v>
+        <v>24000</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S42" s="12">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="T42" s="12">
         <v>0</v>
       </c>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
+      <c r="U42" s="12"/>
       <c r="V42" s="8" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="X42" s="10"/>
     </row>
-    <row r="43" spans="1:24" ht="42">
+    <row r="43" spans="1:24" ht="22.5">
       <c r="A43" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="J43" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="K43" s="6">
+      <c r="B43" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="11">
         <v>1</v>
       </c>
-      <c r="L43" s="7">
-        <v>27900</v>
-      </c>
-      <c r="M43" s="7">
-        <v>23715</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>23715</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>27900</v>
-      </c>
-      <c r="R43" s="3" t="s">
+      <c r="L43" s="12">
+        <v>29000</v>
+      </c>
+      <c r="M43" s="12">
+        <v>24650</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12">
+        <v>0</v>
+      </c>
+      <c r="P43" s="12">
+        <v>24650</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>29000</v>
+      </c>
+      <c r="R43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S43" s="7">
-        <v>0</v>
-      </c>
-      <c r="T43" s="7">
-        <v>0</v>
-      </c>
-      <c r="U43" s="7">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="W43" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="X43" s="5"/>
+      <c r="S43" s="12">
+        <v>0</v>
+      </c>
+      <c r="T43" s="12">
+        <v>0</v>
+      </c>
+      <c r="U43" s="12"/>
+      <c r="V43" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W43" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="X43" s="10"/>
     </row>
-    <row r="44" spans="1:24" ht="28">
+    <row r="44" spans="1:24" ht="22.5">
       <c r="A44" s="14" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="J44" s="10"/>
+        <v>700</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" s="11">
         <v>1</v>
       </c>
       <c r="L44" s="12">
-        <v>98800</v>
+        <v>69000</v>
       </c>
       <c r="M44" s="12">
-        <v>86940</v>
+        <v>58650</v>
       </c>
       <c r="N44" s="12">
         <v>0</v>
@@ -6488,132 +6472,134 @@
         <v>0</v>
       </c>
       <c r="P44" s="12">
-        <v>86940</v>
+        <v>58650</v>
       </c>
       <c r="Q44" s="12">
-        <v>98800</v>
+        <v>69000</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S44" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T44" s="12">
         <v>0</v>
       </c>
       <c r="U44" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>535</v>
+        <v>500</v>
       </c>
       <c r="X44" s="10"/>
     </row>
-    <row r="45" spans="1:24" ht="28">
+    <row r="45" spans="1:24">
       <c r="A45" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="K45" s="6">
+      <c r="B45" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="11">
         <v>1</v>
       </c>
-      <c r="L45" s="7">
-        <v>25100</v>
-      </c>
-      <c r="M45" s="7">
-        <v>22080</v>
-      </c>
-      <c r="N45" s="7">
-        <v>0</v>
-      </c>
-      <c r="O45" s="7">
-        <v>0</v>
-      </c>
-      <c r="P45" s="7">
-        <v>22080</v>
-      </c>
-      <c r="Q45" s="7">
-        <v>25100</v>
-      </c>
-      <c r="R45" s="3" t="s">
+      <c r="L45" s="12">
+        <v>86000</v>
+      </c>
+      <c r="M45" s="12">
+        <v>75680</v>
+      </c>
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12">
+        <v>0</v>
+      </c>
+      <c r="P45" s="12">
+        <v>75680</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>86000</v>
+      </c>
+      <c r="R45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S45" s="7">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0</v>
-      </c>
-      <c r="U45" s="7">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="X45" s="5"/>
+      <c r="S45" s="12">
+        <v>0</v>
+      </c>
+      <c r="T45" s="12">
+        <v>0</v>
+      </c>
+      <c r="U45" s="12">
+        <v>0</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="W45" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="46" spans="1:24" ht="28">
+    <row r="46" spans="1:24" ht="56.25">
       <c r="A46" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="J46" s="10"/>
+        <v>720</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="K46" s="11">
         <v>1</v>
       </c>
       <c r="L46" s="12">
-        <v>35100</v>
+        <v>15800</v>
       </c>
       <c r="M46" s="12">
-        <v>29835</v>
+        <v>13430</v>
       </c>
       <c r="N46" s="12">
         <v>0</v>
@@ -6622,66 +6608,66 @@
         <v>0</v>
       </c>
       <c r="P46" s="12">
-        <v>29835</v>
+        <v>13430</v>
       </c>
       <c r="Q46" s="12">
-        <v>35100</v>
+        <v>15800</v>
       </c>
       <c r="R46" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S46" s="12">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="T46" s="12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="U46" s="12">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="X46" s="10"/>
+        <v>520</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="47" spans="1:24" ht="70">
+    <row r="47" spans="1:24">
       <c r="A47" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>107</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="6">
         <v>1</v>
       </c>
       <c r="L47" s="7">
-        <v>15800</v>
+        <v>55000</v>
       </c>
       <c r="M47" s="7">
-        <v>13430</v>
+        <v>48400</v>
       </c>
       <c r="N47" s="7">
         <v>0</v>
@@ -6690,66 +6676,66 @@
         <v>0</v>
       </c>
       <c r="P47" s="7">
-        <v>13430</v>
+        <v>48400</v>
       </c>
       <c r="Q47" s="7">
-        <v>15800</v>
+        <v>55000</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S47" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T47" s="7">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="U47" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>162</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="X47" s="5"/>
     </row>
-    <row r="48" spans="1:24" ht="28">
+    <row r="48" spans="1:24" ht="56.25">
       <c r="A48" s="14" t="s">
         <v>163</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="J48" s="10"/>
+        <v>712</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="K48" s="11">
         <v>1</v>
       </c>
       <c r="L48" s="12">
-        <v>42900</v>
+        <v>15800</v>
       </c>
       <c r="M48" s="12">
-        <v>36465</v>
+        <v>13430</v>
       </c>
       <c r="N48" s="12">
         <v>0</v>
@@ -6758,66 +6744,68 @@
         <v>0</v>
       </c>
       <c r="P48" s="12">
-        <v>36465</v>
+        <v>13430</v>
       </c>
       <c r="Q48" s="12">
-        <v>42900</v>
+        <v>15800</v>
       </c>
       <c r="R48" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S48" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T48" s="12">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="U48" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="X48" s="10"/>
+        <v>512</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="49" spans="1:24" ht="98">
+    <row r="49" spans="1:24" ht="22.5">
       <c r="A49" s="13" t="s">
         <v>166</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="s">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="K49" s="6">
         <v>1</v>
       </c>
       <c r="L49" s="7">
-        <v>28000</v>
+        <v>16100</v>
       </c>
       <c r="M49" s="7">
-        <v>23800</v>
+        <v>14160</v>
       </c>
       <c r="N49" s="7">
         <v>0</v>
@@ -6826,66 +6814,66 @@
         <v>0</v>
       </c>
       <c r="P49" s="7">
-        <v>23800</v>
+        <v>14160</v>
       </c>
       <c r="Q49" s="7">
-        <v>28000</v>
+        <v>16100</v>
       </c>
       <c r="R49" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S49" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T49" s="7">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="U49" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>170</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="X49" s="5"/>
     </row>
-    <row r="50" spans="1:24" ht="28">
+    <row r="50" spans="1:24" ht="22.5">
       <c r="A50" s="14" t="s">
         <v>171</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>642</v>
+        <v>607</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="J50" s="10"/>
+        <v>706</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="K50" s="11">
         <v>1</v>
       </c>
       <c r="L50" s="12">
-        <v>27800</v>
+        <v>34900</v>
       </c>
       <c r="M50" s="12">
-        <v>23630</v>
+        <v>29665</v>
       </c>
       <c r="N50" s="12">
         <v>0</v>
@@ -6894,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="12">
-        <v>23630</v>
+        <v>29665</v>
       </c>
       <c r="Q50" s="12">
-        <v>27800</v>
+        <v>34900</v>
       </c>
       <c r="R50" s="8" t="s">
         <v>39</v>
@@ -6912,184 +6900,184 @@
         <v>3000</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>541</v>
+        <v>506</v>
       </c>
       <c r="X50" s="10"/>
     </row>
-    <row r="51" spans="1:24" ht="56">
+    <row r="51" spans="1:24" ht="22.5">
       <c r="A51" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>742</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="K51" s="6">
+      <c r="B51" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="11">
         <v>1</v>
       </c>
-      <c r="L51" s="7">
-        <v>29800</v>
-      </c>
-      <c r="M51" s="7">
-        <v>26220</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7">
-        <v>26220</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>29800</v>
-      </c>
-      <c r="R51" s="3" t="s">
+      <c r="L51" s="12">
+        <v>16100</v>
+      </c>
+      <c r="M51" s="12">
+        <v>14160</v>
+      </c>
+      <c r="N51" s="12">
+        <v>0</v>
+      </c>
+      <c r="O51" s="12">
+        <v>0</v>
+      </c>
+      <c r="P51" s="12">
+        <v>14160</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>16100</v>
+      </c>
+      <c r="R51" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W51" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="X51" s="5"/>
+      <c r="S51" s="12">
+        <v>0</v>
+      </c>
+      <c r="T51" s="12">
+        <v>0</v>
+      </c>
+      <c r="U51" s="12">
+        <v>0</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="X51" s="10"/>
     </row>
-    <row r="52" spans="1:24" ht="28">
+    <row r="52" spans="1:24">
       <c r="A52" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="B52" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6">
         <v>1</v>
       </c>
-      <c r="L52" s="12">
-        <v>16100</v>
-      </c>
-      <c r="M52" s="12">
-        <v>14160</v>
-      </c>
-      <c r="N52" s="12">
-        <v>0</v>
-      </c>
-      <c r="O52" s="12">
-        <v>0</v>
-      </c>
-      <c r="P52" s="12">
-        <v>14160</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>16100</v>
-      </c>
-      <c r="R52" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S52" s="12">
-        <v>0</v>
-      </c>
-      <c r="T52" s="12">
-        <v>0</v>
-      </c>
-      <c r="U52" s="12">
-        <v>0</v>
-      </c>
-      <c r="V52" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="W52" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="X52" s="10"/>
+      <c r="L52" s="7">
+        <v>27800</v>
+      </c>
+      <c r="M52" s="7">
+        <v>23630</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7">
+        <v>0</v>
+      </c>
+      <c r="P52" s="7">
+        <v>23630</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>27800</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S52" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T52" s="7">
+        <v>0</v>
+      </c>
+      <c r="U52" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
-    <row r="53" spans="1:24" ht="28">
+    <row r="53" spans="1:24" ht="22.5">
       <c r="A53" s="13" t="s">
         <v>179</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>645</v>
+        <v>610</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>744</v>
+        <v>709</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="K53" s="6">
         <v>1</v>
       </c>
       <c r="L53" s="7">
-        <v>16100</v>
+        <v>35000</v>
       </c>
       <c r="M53" s="7">
-        <v>14160</v>
+        <v>29750</v>
       </c>
       <c r="N53" s="7">
         <v>0</v>
@@ -7098,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="7">
-        <v>14160</v>
+        <v>29750</v>
       </c>
       <c r="Q53" s="7">
-        <v>16100</v>
+        <v>35000</v>
       </c>
       <c r="R53" s="3" t="s">
         <v>27</v>
@@ -7116,116 +7104,114 @@
         <v>0</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="X53" s="5"/>
+        <v>509</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="54" spans="1:24" ht="28">
+    <row r="54" spans="1:24">
       <c r="A54" s="14" t="s">
         <v>181</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>183</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="J54" s="10"/>
       <c r="K54" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L54" s="12">
-        <v>29800</v>
+        <v>15500</v>
       </c>
       <c r="M54" s="12">
-        <v>25330</v>
+        <v>13175</v>
       </c>
       <c r="N54" s="12">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O54" s="12">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="P54" s="12">
-        <v>33830</v>
+        <v>26350</v>
       </c>
       <c r="Q54" s="12">
-        <v>39800</v>
+        <v>31000</v>
       </c>
       <c r="R54" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S54" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T54" s="12">
         <v>0</v>
       </c>
       <c r="U54" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="W54" s="10" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="X54" s="10"/>
     </row>
-    <row r="55" spans="1:24" ht="28">
+    <row r="55" spans="1:24">
       <c r="A55" s="13" t="s">
         <v>185</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>647</v>
+        <v>663</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>35</v>
-      </c>
+        <v>761</v>
+      </c>
+      <c r="J55" s="5"/>
       <c r="K55" s="6">
         <v>1</v>
       </c>
       <c r="L55" s="7">
-        <v>16100</v>
+        <v>5570</v>
       </c>
       <c r="M55" s="7">
-        <v>14160</v>
+        <v>4734</v>
       </c>
       <c r="N55" s="7">
         <v>0</v>
@@ -7234,130 +7220,130 @@
         <v>0</v>
       </c>
       <c r="P55" s="7">
-        <v>14160</v>
+        <v>4734</v>
       </c>
       <c r="Q55" s="7">
-        <v>16100</v>
+        <v>5570</v>
       </c>
       <c r="R55" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S55" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T55" s="7">
         <v>0</v>
       </c>
       <c r="U55" s="7">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="X55" s="5"/>
     </row>
-    <row r="56" spans="1:24" ht="28">
+    <row r="56" spans="1:24">
       <c r="A56" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="11">
+      <c r="B56" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6">
         <v>1</v>
       </c>
-      <c r="L56" s="12">
-        <v>29900</v>
-      </c>
-      <c r="M56" s="12">
-        <v>25415</v>
-      </c>
-      <c r="N56" s="12">
-        <v>0</v>
-      </c>
-      <c r="O56" s="12">
-        <v>0</v>
-      </c>
-      <c r="P56" s="12">
-        <v>25415</v>
-      </c>
-      <c r="Q56" s="12">
-        <v>29900</v>
-      </c>
-      <c r="R56" s="8" t="s">
+      <c r="L56" s="7">
+        <v>12900</v>
+      </c>
+      <c r="M56" s="7">
+        <v>10965</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0</v>
+      </c>
+      <c r="O56" s="7">
+        <v>0</v>
+      </c>
+      <c r="P56" s="7">
+        <v>10965</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>12900</v>
+      </c>
+      <c r="R56" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S56" s="12">
+      <c r="S56" s="7">
         <v>3000</v>
       </c>
-      <c r="T56" s="12">
-        <v>50000</v>
-      </c>
-      <c r="U56" s="12">
-        <v>3000</v>
-      </c>
-      <c r="V56" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="W56" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="X56" s="10"/>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
+      <c r="U56" s="7"/>
+      <c r="V56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="X56" s="5"/>
     </row>
-    <row r="57" spans="1:24" ht="28">
+    <row r="57" spans="1:24" ht="22.5">
       <c r="A57" s="13" t="s">
         <v>190</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>748</v>
-      </c>
-      <c r="J57" s="5"/>
+        <v>744</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="K57" s="6">
         <v>1</v>
       </c>
       <c r="L57" s="7">
-        <v>35100</v>
+        <v>16100</v>
       </c>
       <c r="M57" s="7">
-        <v>29835</v>
+        <v>14160</v>
       </c>
       <c r="N57" s="7">
         <v>0</v>
@@ -7366,132 +7352,128 @@
         <v>0</v>
       </c>
       <c r="P57" s="7">
-        <v>29835</v>
+        <v>14160</v>
       </c>
       <c r="Q57" s="7">
-        <v>35100</v>
+        <v>16100</v>
       </c>
       <c r="R57" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S57" s="7">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T57" s="7">
         <v>0</v>
       </c>
       <c r="U57" s="7">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" ht="42">
+    <row r="58" spans="1:24">
       <c r="A58" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K58" s="11">
+      <c r="B58" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6">
         <v>1</v>
       </c>
-      <c r="L58" s="12">
-        <v>48000</v>
-      </c>
-      <c r="M58" s="12">
-        <v>40800</v>
-      </c>
-      <c r="N58" s="12">
-        <v>0</v>
-      </c>
-      <c r="O58" s="12">
-        <v>0</v>
-      </c>
-      <c r="P58" s="12">
-        <v>40800</v>
-      </c>
-      <c r="Q58" s="12">
-        <v>48000</v>
-      </c>
-      <c r="R58" s="8" t="s">
+      <c r="L58" s="7">
+        <v>27000</v>
+      </c>
+      <c r="M58" s="7">
+        <v>22950</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0</v>
+      </c>
+      <c r="O58" s="7">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>22950</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>27000</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="S58" s="12">
-        <v>2500</v>
-      </c>
-      <c r="T58" s="12">
-        <v>0</v>
-      </c>
-      <c r="U58" s="12">
-        <v>2500</v>
-      </c>
-      <c r="V58" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="W58" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="X58" s="10"/>
+      <c r="S58" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
+      </c>
+      <c r="U58" s="7"/>
+      <c r="V58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="X58" s="5"/>
     </row>
-    <row r="59" spans="1:24" ht="28">
+    <row r="59" spans="1:24">
       <c r="A59" s="13" t="s">
         <v>195</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>651</v>
+        <v>614</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>595</v>
+        <v>713</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="6">
         <v>1</v>
       </c>
       <c r="L59" s="7">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="M59" s="7">
-        <v>63750</v>
+        <v>27200</v>
       </c>
       <c r="N59" s="7">
         <v>0</v>
@@ -7500,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="7">
-        <v>63750</v>
+        <v>27200</v>
       </c>
       <c r="Q59" s="7">
-        <v>75000</v>
+        <v>32000</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>27</v>
@@ -7518,50 +7500,50 @@
         <v>0</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>550</v>
+        <v>513</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="28">
+    <row r="60" spans="1:24" ht="45">
       <c r="A60" s="14" t="s">
         <v>199</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="K60" s="11">
         <v>1</v>
       </c>
       <c r="L60" s="12">
-        <v>220000</v>
+        <v>19900</v>
       </c>
       <c r="M60" s="12">
-        <v>187000</v>
+        <v>16900</v>
       </c>
       <c r="N60" s="12">
         <v>0</v>
@@ -7570,10 +7552,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="12">
-        <v>187000</v>
+        <v>16900</v>
       </c>
       <c r="Q60" s="12">
-        <v>220000</v>
+        <v>19900</v>
       </c>
       <c r="R60" s="8" t="s">
         <v>27</v>
@@ -7588,114 +7570,116 @@
         <v>0</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="W60" s="10" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="X60" s="10"/>
     </row>
-    <row r="61" spans="1:24" ht="28">
+    <row r="61" spans="1:24" ht="56.25">
       <c r="A61" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="6">
+      <c r="B61" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>782</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="K61" s="11">
         <v>1</v>
       </c>
-      <c r="L61" s="7">
-        <v>75000</v>
-      </c>
-      <c r="M61" s="7">
-        <v>63750</v>
-      </c>
-      <c r="N61" s="7">
-        <v>0</v>
-      </c>
-      <c r="O61" s="7">
-        <v>0</v>
-      </c>
-      <c r="P61" s="7">
-        <v>63750</v>
-      </c>
-      <c r="Q61" s="7">
-        <v>75000</v>
-      </c>
-      <c r="R61" s="3" t="s">
+      <c r="L61" s="12">
+        <v>85000</v>
+      </c>
+      <c r="M61" s="12">
+        <v>72250</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0</v>
+      </c>
+      <c r="P61" s="12">
+        <v>72250</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>85000</v>
+      </c>
+      <c r="R61" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S61" s="7">
-        <v>0</v>
-      </c>
-      <c r="T61" s="7">
-        <v>0</v>
-      </c>
-      <c r="U61" s="7">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="X61" s="5"/>
+      <c r="S61" s="12">
+        <v>0</v>
+      </c>
+      <c r="T61" s="12">
+        <v>0</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="W61" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="X61" s="10"/>
     </row>
-    <row r="62" spans="1:24" ht="28">
+    <row r="62" spans="1:24" ht="45">
       <c r="A62" s="14" t="s">
         <v>205</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>206</v>
+        <v>99</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="K62" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="12">
-        <v>69000</v>
+        <v>19900</v>
       </c>
       <c r="M62" s="12">
-        <v>58650</v>
+        <v>16900</v>
       </c>
       <c r="N62" s="12">
         <v>0</v>
@@ -7704,10 +7688,10 @@
         <v>0</v>
       </c>
       <c r="P62" s="12">
-        <v>58650</v>
+        <v>33800</v>
       </c>
       <c r="Q62" s="12">
-        <v>69000</v>
+        <v>39800</v>
       </c>
       <c r="R62" s="8" t="s">
         <v>27</v>
@@ -7722,48 +7706,48 @@
         <v>0</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="W62" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="X62" s="10" t="s">
-        <v>198</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="X62" s="10"/>
     </row>
-    <row r="63" spans="1:24" ht="28">
+    <row r="63" spans="1:24" ht="22.5">
       <c r="A63" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>210</v>
+        <v>271</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="J63" s="5"/>
+        <v>781</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="K63" s="6">
         <v>1</v>
       </c>
       <c r="L63" s="7">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="M63" s="7">
-        <v>27200</v>
+        <v>32300</v>
       </c>
       <c r="N63" s="7">
         <v>0</v>
@@ -7772,66 +7756,64 @@
         <v>0</v>
       </c>
       <c r="P63" s="7">
-        <v>27200</v>
+        <v>32300</v>
       </c>
       <c r="Q63" s="7">
-        <v>32000</v>
+        <v>38000</v>
       </c>
       <c r="R63" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S63" s="7">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T63" s="7">
         <v>0</v>
       </c>
-      <c r="U63" s="7">
-        <v>3500</v>
-      </c>
+      <c r="U63" s="7"/>
       <c r="V63" s="3" t="s">
-        <v>211</v>
+        <v>264</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="1:24" ht="42">
+    <row r="64" spans="1:24" ht="22.5">
       <c r="A64" s="15" t="s">
         <v>212</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>656</v>
+        <v>597</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>355</v>
+        <v>296</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>754</v>
+        <v>696</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="K64" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" s="12">
-        <v>27900</v>
+        <v>29000</v>
       </c>
       <c r="M64" s="12">
-        <v>23715</v>
+        <v>24650</v>
       </c>
       <c r="N64" s="12">
         <v>0</v>
@@ -7840,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="12">
-        <v>47430</v>
+        <v>24650</v>
       </c>
       <c r="Q64" s="12">
-        <v>55800</v>
+        <v>29000</v>
       </c>
       <c r="R64" s="8" t="s">
         <v>27</v>
@@ -7855,47 +7837,49 @@
         <v>0</v>
       </c>
       <c r="U64" s="12">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="W64" s="10" t="s">
-        <v>555</v>
+        <v>496</v>
       </c>
       <c r="X64" s="10"/>
     </row>
-    <row r="65" spans="1:24" ht="28">
+    <row r="65" spans="1:24" ht="33.75">
       <c r="A65" s="16"/>
       <c r="B65" s="8" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="8" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="J65" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="K65" s="11">
         <v>1</v>
       </c>
       <c r="L65" s="12">
-        <v>9700</v>
+        <v>48000</v>
       </c>
       <c r="M65" s="12">
-        <v>8245</v>
+        <v>40800</v>
       </c>
       <c r="N65" s="12">
         <v>0</v>
@@ -7904,62 +7888,64 @@
         <v>0</v>
       </c>
       <c r="P65" s="12">
-        <v>8245</v>
+        <v>40800</v>
       </c>
       <c r="Q65" s="12">
-        <v>9700</v>
+        <v>48000</v>
       </c>
       <c r="R65" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S65" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T65" s="12">
         <v>0</v>
       </c>
-      <c r="U65" s="12"/>
+      <c r="U65" s="12">
+        <v>2500</v>
+      </c>
       <c r="V65" s="8" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="W65" s="10" t="s">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="X65" s="10"/>
     </row>
-    <row r="66" spans="1:24" ht="42">
+    <row r="66" spans="1:24" ht="22.5">
       <c r="A66" s="17"/>
       <c r="B66" s="8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="8" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="K66" s="11">
         <v>1</v>
       </c>
       <c r="L66" s="12">
-        <v>48000</v>
+        <v>220000</v>
       </c>
       <c r="M66" s="12">
-        <v>40800</v>
+        <v>187000</v>
       </c>
       <c r="N66" s="12">
         <v>0</v>
@@ -7968,62 +7954,66 @@
         <v>0</v>
       </c>
       <c r="P66" s="12">
-        <v>40800</v>
+        <v>187000</v>
       </c>
       <c r="Q66" s="12">
-        <v>48000</v>
+        <v>220000</v>
       </c>
       <c r="R66" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S66" s="12">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="T66" s="12">
         <v>0</v>
       </c>
-      <c r="U66" s="12"/>
+      <c r="U66" s="12">
+        <v>0</v>
+      </c>
       <c r="V66" s="8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="W66" s="10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="X66" s="10"/>
     </row>
-    <row r="67" spans="1:24" ht="28">
+    <row r="67" spans="1:24" ht="22.5">
       <c r="A67" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>757</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>765</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>241</v>
+      </c>
       <c r="K67" s="6">
         <v>1</v>
       </c>
       <c r="L67" s="7">
-        <v>12900</v>
+        <v>42900</v>
       </c>
       <c r="M67" s="7">
-        <v>10965</v>
+        <v>36460</v>
       </c>
       <c r="N67" s="7">
         <v>0</v>
@@ -8032,266 +8022,264 @@
         <v>0</v>
       </c>
       <c r="P67" s="7">
-        <v>10965</v>
+        <v>36460</v>
       </c>
       <c r="Q67" s="7">
-        <v>12900</v>
+        <v>42900</v>
       </c>
       <c r="R67" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S67" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T67" s="7">
         <v>0</v>
       </c>
       <c r="U67" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>558</v>
-      </c>
-      <c r="X67" s="5" t="s">
-        <v>218</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="X67" s="5"/>
     </row>
-    <row r="68" spans="1:24" ht="42">
+    <row r="68" spans="1:24">
       <c r="A68" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="K68" s="11">
+      <c r="B68" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6">
         <v>1</v>
       </c>
-      <c r="L68" s="12">
-        <v>79000</v>
-      </c>
-      <c r="M68" s="12">
-        <v>67150</v>
-      </c>
-      <c r="N68" s="12">
-        <v>0</v>
-      </c>
-      <c r="O68" s="12">
-        <v>0</v>
-      </c>
-      <c r="P68" s="12">
-        <v>67150</v>
-      </c>
-      <c r="Q68" s="12">
-        <v>79000</v>
-      </c>
-      <c r="R68" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S68" s="12">
-        <v>0</v>
-      </c>
-      <c r="T68" s="12">
-        <v>0</v>
-      </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="W68" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="X68" s="10"/>
+      <c r="L68" s="7">
+        <v>33900</v>
+      </c>
+      <c r="M68" s="7">
+        <v>28810</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>0</v>
+      </c>
+      <c r="P68" s="7">
+        <v>28810</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>33900</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S68" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T68" s="7">
+        <v>50000</v>
+      </c>
+      <c r="U68" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V68" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="X68" s="5"/>
     </row>
-    <row r="69" spans="1:24" ht="28">
+    <row r="69" spans="1:24" ht="22.5">
       <c r="A69" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="J69" s="5"/>
-      <c r="K69" s="6">
+      <c r="B69" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K69" s="11">
         <v>1</v>
       </c>
-      <c r="L69" s="7">
-        <v>55000</v>
-      </c>
-      <c r="M69" s="7">
-        <v>48400</v>
-      </c>
-      <c r="N69" s="7">
-        <v>0</v>
-      </c>
-      <c r="O69" s="7">
-        <v>0</v>
-      </c>
-      <c r="P69" s="7">
-        <v>48400</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>55000</v>
-      </c>
-      <c r="R69" s="3" t="s">
+      <c r="L69" s="12">
+        <v>14900</v>
+      </c>
+      <c r="M69" s="12">
+        <v>12665</v>
+      </c>
+      <c r="N69" s="12">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <v>0</v>
+      </c>
+      <c r="P69" s="12">
+        <v>12665</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>14900</v>
+      </c>
+      <c r="R69" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S69" s="7">
-        <v>0</v>
-      </c>
-      <c r="T69" s="7">
-        <v>0</v>
-      </c>
-      <c r="U69" s="7">
-        <v>0</v>
-      </c>
-      <c r="V69" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="W69" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="X69" s="5"/>
+      <c r="S69" s="12">
+        <v>0</v>
+      </c>
+      <c r="T69" s="12">
+        <v>0</v>
+      </c>
+      <c r="U69" s="12"/>
+      <c r="V69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="W69" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="X69" s="10"/>
     </row>
-    <row r="70" spans="1:24" ht="28">
+    <row r="70" spans="1:24" ht="22.5">
       <c r="A70" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="11">
+      <c r="B70" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="K70" s="6">
         <v>1</v>
       </c>
-      <c r="L70" s="12">
-        <v>46500</v>
-      </c>
-      <c r="M70" s="12">
-        <v>39520</v>
-      </c>
-      <c r="N70" s="12">
-        <v>0</v>
-      </c>
-      <c r="O70" s="12">
-        <v>0</v>
-      </c>
-      <c r="P70" s="12">
-        <v>39520</v>
-      </c>
-      <c r="Q70" s="12">
-        <v>46500</v>
-      </c>
-      <c r="R70" s="8" t="s">
+      <c r="L70" s="7">
+        <v>19600</v>
+      </c>
+      <c r="M70" s="7">
+        <v>16660</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>16660</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>19600</v>
+      </c>
+      <c r="R70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S70" s="12">
-        <v>0</v>
-      </c>
-      <c r="T70" s="12">
-        <v>0</v>
-      </c>
-      <c r="U70" s="12">
-        <v>0</v>
-      </c>
-      <c r="V70" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="W70" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="X70" s="10"/>
+      <c r="S70" s="7">
+        <v>0</v>
+      </c>
+      <c r="T70" s="7">
+        <v>0</v>
+      </c>
+      <c r="U70" s="7">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="X70" s="5"/>
     </row>
-    <row r="71" spans="1:24" ht="28">
+    <row r="71" spans="1:24">
       <c r="A71" s="13" t="s">
         <v>229</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="6">
         <v>1</v>
       </c>
       <c r="L71" s="7">
-        <v>5570</v>
+        <v>35100</v>
       </c>
       <c r="M71" s="7">
-        <v>4734</v>
+        <v>29835</v>
       </c>
       <c r="N71" s="7">
         <v>0</v>
@@ -8300,64 +8288,66 @@
         <v>0</v>
       </c>
       <c r="P71" s="7">
-        <v>4734</v>
+        <v>29835</v>
       </c>
       <c r="Q71" s="7">
-        <v>5570</v>
+        <v>35100</v>
       </c>
       <c r="R71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="S71" s="7">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T71" s="7">
         <v>0</v>
       </c>
       <c r="U71" s="7">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="X71" s="5"/>
     </row>
-    <row r="72" spans="1:24" ht="28">
+    <row r="72" spans="1:24" ht="33.75">
       <c r="A72" s="14" t="s">
         <v>232</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="J72" s="10"/>
+        <v>758</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>221</v>
+      </c>
       <c r="K72" s="11">
         <v>1</v>
       </c>
       <c r="L72" s="12">
-        <v>16700</v>
+        <v>79000</v>
       </c>
       <c r="M72" s="12">
-        <v>14195</v>
+        <v>67150</v>
       </c>
       <c r="N72" s="12">
         <v>0</v>
@@ -8366,460 +8356,466 @@
         <v>0</v>
       </c>
       <c r="P72" s="12">
-        <v>14195</v>
+        <v>67150</v>
       </c>
       <c r="Q72" s="12">
-        <v>16700</v>
+        <v>79000</v>
       </c>
       <c r="R72" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S72" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T72" s="12">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="U72" s="12">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V72" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="W72" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="X72" s="10"/>
     </row>
-    <row r="73" spans="1:24" ht="28">
+    <row r="73" spans="1:24" ht="56.25">
       <c r="A73" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="J73" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K73" s="6">
+      <c r="B73" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K73" s="11">
         <v>1</v>
       </c>
-      <c r="L73" s="7">
-        <v>16100</v>
-      </c>
-      <c r="M73" s="7">
-        <v>14160</v>
-      </c>
-      <c r="N73" s="7">
-        <v>0</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0</v>
-      </c>
-      <c r="P73" s="7">
-        <v>14160</v>
-      </c>
-      <c r="Q73" s="7">
-        <v>16100</v>
-      </c>
-      <c r="R73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S73" s="7">
-        <v>0</v>
-      </c>
-      <c r="T73" s="7">
-        <v>0</v>
-      </c>
-      <c r="U73" s="7">
-        <v>0</v>
-      </c>
-      <c r="V73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="W73" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="X73" s="5"/>
+      <c r="L73" s="12">
+        <v>15800</v>
+      </c>
+      <c r="M73" s="12">
+        <v>13430</v>
+      </c>
+      <c r="N73" s="12">
+        <v>13600</v>
+      </c>
+      <c r="O73" s="12">
+        <v>11560</v>
+      </c>
+      <c r="P73" s="12">
+        <v>24990</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>29400</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S73" s="12">
+        <v>3000</v>
+      </c>
+      <c r="T73" s="12">
+        <v>30000</v>
+      </c>
+      <c r="U73" s="12">
+        <v>3000</v>
+      </c>
+      <c r="V73" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="W73" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="X73" s="10" t="s">
+        <v>283</v>
+      </c>
     </row>
-    <row r="74" spans="1:24" ht="28">
+    <row r="74" spans="1:24">
       <c r="A74" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="J74" s="10"/>
-      <c r="K74" s="11">
+      <c r="B74" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="6">
         <v>1</v>
       </c>
-      <c r="L74" s="12">
-        <v>5570</v>
-      </c>
-      <c r="M74" s="12">
-        <v>4734</v>
-      </c>
-      <c r="N74" s="12">
-        <v>0</v>
-      </c>
-      <c r="O74" s="12">
-        <v>0</v>
-      </c>
-      <c r="P74" s="12">
-        <v>4734</v>
-      </c>
-      <c r="Q74" s="12">
-        <v>5570</v>
-      </c>
-      <c r="R74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S74" s="12">
-        <v>3000</v>
-      </c>
-      <c r="T74" s="12">
-        <v>0</v>
-      </c>
-      <c r="U74" s="12">
-        <v>3000</v>
-      </c>
-      <c r="V74" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="W74" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="X74" s="10"/>
+      <c r="L74" s="7">
+        <v>25500</v>
+      </c>
+      <c r="M74" s="7">
+        <v>21670</v>
+      </c>
+      <c r="N74" s="7">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>0</v>
+      </c>
+      <c r="P74" s="7">
+        <v>21670</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>25500</v>
+      </c>
+      <c r="R74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S74" s="7">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
+      <c r="U74" s="7"/>
+      <c r="V74" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="75" spans="1:24" ht="28">
+    <row r="75" spans="1:24" ht="45">
       <c r="A75" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="J75" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="K75" s="6">
+      <c r="B75" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="J75" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K75" s="11">
         <v>1</v>
       </c>
-      <c r="L75" s="7">
-        <v>42900</v>
-      </c>
-      <c r="M75" s="7">
-        <v>36460</v>
-      </c>
-      <c r="N75" s="7">
-        <v>0</v>
-      </c>
-      <c r="O75" s="7">
-        <v>0</v>
-      </c>
-      <c r="P75" s="7">
-        <v>36460</v>
-      </c>
-      <c r="Q75" s="7">
-        <v>42900</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S75" s="7">
-        <v>0</v>
-      </c>
-      <c r="T75" s="7">
-        <v>0</v>
-      </c>
-      <c r="U75" s="7">
-        <v>0</v>
-      </c>
-      <c r="V75" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="W75" s="5" t="s">
-        <v>566</v>
-      </c>
-      <c r="X75" s="5"/>
+      <c r="L75" s="12">
+        <v>12500</v>
+      </c>
+      <c r="M75" s="12">
+        <v>10625</v>
+      </c>
+      <c r="N75" s="12">
+        <v>0</v>
+      </c>
+      <c r="O75" s="12">
+        <v>0</v>
+      </c>
+      <c r="P75" s="12">
+        <v>10625</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>12500</v>
+      </c>
+      <c r="R75" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S75" s="12">
+        <v>2500</v>
+      </c>
+      <c r="T75" s="12">
+        <v>0</v>
+      </c>
+      <c r="U75" s="12"/>
+      <c r="V75" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W75" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="X75" s="10"/>
     </row>
-    <row r="76" spans="1:24" ht="28">
+    <row r="76" spans="1:24" ht="78.75">
       <c r="A76" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="K76" s="11">
+      <c r="B76" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="K76" s="6">
         <v>1</v>
       </c>
-      <c r="L76" s="12">
-        <v>14900</v>
-      </c>
-      <c r="M76" s="12">
-        <v>12665</v>
-      </c>
-      <c r="N76" s="12">
-        <v>0</v>
-      </c>
-      <c r="O76" s="12">
-        <v>0</v>
-      </c>
-      <c r="P76" s="12">
-        <v>12665</v>
-      </c>
-      <c r="Q76" s="12">
-        <v>14900</v>
-      </c>
-      <c r="R76" s="8" t="s">
+      <c r="L76" s="7">
+        <v>28000</v>
+      </c>
+      <c r="M76" s="7">
+        <v>23800</v>
+      </c>
+      <c r="N76" s="7">
+        <v>22000</v>
+      </c>
+      <c r="O76" s="7">
+        <v>18700</v>
+      </c>
+      <c r="P76" s="7">
+        <v>42500</v>
+      </c>
+      <c r="Q76" s="7">
+        <v>50000</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S76" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T76" s="7">
+        <v>50000</v>
+      </c>
+      <c r="U76" s="7">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="78.75">
+      <c r="A77" s="16"/>
+      <c r="B77" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1</v>
+      </c>
+      <c r="L77" s="7">
+        <v>28000</v>
+      </c>
+      <c r="M77" s="7">
+        <v>23800</v>
+      </c>
+      <c r="N77" s="7">
+        <v>0</v>
+      </c>
+      <c r="O77" s="7">
+        <v>0</v>
+      </c>
+      <c r="P77" s="7">
+        <v>23800</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>28000</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S77" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T77" s="7">
+        <v>50000</v>
+      </c>
+      <c r="U77" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="W77" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="X77" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
+      <c r="A78" s="17"/>
+      <c r="B78" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="6">
+        <v>1</v>
+      </c>
+      <c r="L78" s="7">
+        <v>699000</v>
+      </c>
+      <c r="M78" s="7">
+        <v>615120</v>
+      </c>
+      <c r="N78" s="7">
+        <v>0</v>
+      </c>
+      <c r="O78" s="7">
+        <v>0</v>
+      </c>
+      <c r="P78" s="7">
+        <v>615120</v>
+      </c>
+      <c r="Q78" s="7">
+        <v>699000</v>
+      </c>
+      <c r="R78" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S76" s="12">
-        <v>0</v>
-      </c>
-      <c r="T76" s="12">
-        <v>0</v>
-      </c>
-      <c r="U76" s="12">
-        <v>3000</v>
-      </c>
-      <c r="V76" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W76" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="X76" s="10"/>
+      <c r="S78" s="7">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
+      </c>
+      <c r="U78" s="7"/>
+      <c r="V78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="X78" s="5"/>
     </row>
-    <row r="77" spans="1:24" ht="28">
-      <c r="A77" s="16"/>
-      <c r="B77" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>767</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="K77" s="11">
-        <v>1</v>
-      </c>
-      <c r="L77" s="12">
-        <v>14900</v>
-      </c>
-      <c r="M77" s="12">
-        <v>12665</v>
-      </c>
-      <c r="N77" s="12">
-        <v>0</v>
-      </c>
-      <c r="O77" s="12">
-        <v>0</v>
-      </c>
-      <c r="P77" s="12">
-        <v>12665</v>
-      </c>
-      <c r="Q77" s="12">
-        <v>14900</v>
-      </c>
-      <c r="R77" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S77" s="12">
-        <v>0</v>
-      </c>
-      <c r="T77" s="12">
-        <v>0</v>
-      </c>
-      <c r="U77" s="12"/>
-      <c r="V77" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W77" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="X77" s="10"/>
-    </row>
-    <row r="78" spans="1:24" ht="28">
-      <c r="A78" s="17"/>
-      <c r="B78" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>768</v>
-      </c>
-      <c r="J78" s="10"/>
-      <c r="K78" s="11">
-        <v>2</v>
-      </c>
-      <c r="L78" s="12">
-        <v>27800</v>
-      </c>
-      <c r="M78" s="12">
-        <v>23630</v>
-      </c>
-      <c r="N78" s="12">
-        <v>0</v>
-      </c>
-      <c r="O78" s="12">
-        <v>0</v>
-      </c>
-      <c r="P78" s="12">
-        <v>47260</v>
-      </c>
-      <c r="Q78" s="12">
-        <v>55600</v>
-      </c>
-      <c r="R78" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S78" s="12">
-        <v>3000</v>
-      </c>
-      <c r="T78" s="12">
-        <v>0</v>
-      </c>
-      <c r="U78" s="12"/>
-      <c r="V78" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="W78" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="X78" s="10"/>
-    </row>
-    <row r="79" spans="1:24" ht="28">
+    <row r="79" spans="1:24">
       <c r="A79" s="18" t="s">
         <v>248</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>370</v>
+        <v>299</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>470</v>
+        <v>399</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>769</v>
+        <v>699</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L79" s="7">
-        <v>86000</v>
+        <v>32400</v>
       </c>
       <c r="M79" s="7">
-        <v>75680</v>
+        <v>27540</v>
       </c>
       <c r="N79" s="7">
         <v>0</v>
@@ -8828,10 +8824,10 @@
         <v>0</v>
       </c>
       <c r="P79" s="7">
-        <v>75680</v>
+        <v>55080</v>
       </c>
       <c r="Q79" s="7">
-        <v>86000</v>
+        <v>64800</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>27</v>
@@ -8846,178 +8842,182 @@
         <v>0</v>
       </c>
       <c r="V79" s="3" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="W79" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="X79" s="5"/>
+        <v>499</v>
+      </c>
+      <c r="X79" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="80" spans="1:24" ht="28">
+    <row r="80" spans="1:24" ht="22.5">
       <c r="A80" s="19"/>
-      <c r="B80" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>770</v>
-      </c>
-      <c r="J80" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="K80" s="6">
+      <c r="B80" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="J80" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="K80" s="11">
         <v>1</v>
       </c>
-      <c r="L80" s="7">
-        <v>73800</v>
-      </c>
-      <c r="M80" s="7">
-        <v>64940</v>
-      </c>
-      <c r="N80" s="7">
-        <v>0</v>
-      </c>
-      <c r="O80" s="7">
-        <v>0</v>
-      </c>
-      <c r="P80" s="7">
-        <v>64940</v>
-      </c>
-      <c r="Q80" s="7">
-        <v>73800</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S80" s="7">
-        <v>0</v>
-      </c>
-      <c r="T80" s="7">
-        <v>0</v>
-      </c>
-      <c r="U80" s="7"/>
-      <c r="V80" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="W80" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="X80" s="5"/>
+      <c r="L80" s="12">
+        <v>29800</v>
+      </c>
+      <c r="M80" s="12">
+        <v>25330</v>
+      </c>
+      <c r="N80" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O80" s="12">
+        <v>8500</v>
+      </c>
+      <c r="P80" s="12">
+        <v>33830</v>
+      </c>
+      <c r="Q80" s="12">
+        <v>39800</v>
+      </c>
+      <c r="R80" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S80" s="12">
+        <v>3000</v>
+      </c>
+      <c r="T80" s="12">
+        <v>0</v>
+      </c>
+      <c r="U80" s="12">
+        <v>3000</v>
+      </c>
+      <c r="V80" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="W80" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="X80" s="10"/>
     </row>
-    <row r="81" spans="1:24" ht="56">
+    <row r="81" spans="1:24">
       <c r="A81" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K81" s="11">
-        <v>2</v>
-      </c>
-      <c r="L81" s="12">
-        <v>19900</v>
-      </c>
-      <c r="M81" s="12">
-        <v>16900</v>
-      </c>
-      <c r="N81" s="12">
-        <v>0</v>
-      </c>
-      <c r="O81" s="12">
-        <v>0</v>
-      </c>
-      <c r="P81" s="12">
-        <v>33800</v>
-      </c>
-      <c r="Q81" s="12">
-        <v>39800</v>
-      </c>
-      <c r="R81" s="8" t="s">
+      <c r="B81" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="J81" s="5"/>
+      <c r="K81" s="6">
+        <v>1</v>
+      </c>
+      <c r="L81" s="7">
+        <v>86000</v>
+      </c>
+      <c r="M81" s="7">
+        <v>75680</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>75680</v>
+      </c>
+      <c r="Q81" s="7">
+        <v>86000</v>
+      </c>
+      <c r="R81" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S81" s="12">
-        <v>0</v>
-      </c>
-      <c r="T81" s="12">
-        <v>0</v>
-      </c>
-      <c r="U81" s="12">
-        <v>0</v>
-      </c>
-      <c r="V81" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="W81" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="X81" s="10"/>
+      <c r="S81" s="7">
+        <v>0</v>
+      </c>
+      <c r="T81" s="7">
+        <v>0</v>
+      </c>
+      <c r="U81" s="7">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W81" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="X81" s="5"/>
     </row>
-    <row r="82" spans="1:24" ht="28">
+    <row r="82" spans="1:24" ht="22.5">
       <c r="A82" s="13" t="s">
         <v>255</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>373</v>
+        <v>331</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>473</v>
+        <v>431</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="J82" s="5"/>
+        <v>731</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="K82" s="6">
         <v>1</v>
       </c>
       <c r="L82" s="7">
-        <v>27800</v>
+        <v>17900</v>
       </c>
       <c r="M82" s="7">
-        <v>23630</v>
+        <v>15215</v>
       </c>
       <c r="N82" s="7">
         <v>0</v>
@@ -9026,66 +9026,64 @@
         <v>0</v>
       </c>
       <c r="P82" s="7">
-        <v>23630</v>
+        <v>15215</v>
       </c>
       <c r="Q82" s="7">
-        <v>27800</v>
+        <v>17900</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S82" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T82" s="7">
         <v>0</v>
       </c>
       <c r="U82" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="W82" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="X82" s="5" t="s">
-        <v>257</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="X82" s="5"/>
     </row>
-    <row r="83" spans="1:24" ht="28">
+    <row r="83" spans="1:24">
       <c r="A83" s="14" t="s">
         <v>258</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>675</v>
+        <v>611</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="8" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="J83" s="10"/>
       <c r="K83" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83" s="12">
-        <v>10000</v>
+        <v>27000</v>
       </c>
       <c r="M83" s="12">
-        <v>8500</v>
+        <v>22950</v>
       </c>
       <c r="N83" s="12">
         <v>0</v>
@@ -9094,66 +9092,66 @@
         <v>0</v>
       </c>
       <c r="P83" s="12">
-        <v>17000</v>
+        <v>22950</v>
       </c>
       <c r="Q83" s="12">
-        <v>20000</v>
+        <v>27000</v>
       </c>
       <c r="R83" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S83" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T83" s="12">
         <v>0</v>
       </c>
       <c r="U83" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="V83" s="8" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="W83" s="10" t="s">
-        <v>574</v>
+        <v>510</v>
       </c>
       <c r="X83" s="10"/>
     </row>
-    <row r="84" spans="1:24" ht="28">
+    <row r="84" spans="1:24" ht="22.5">
       <c r="A84" s="18" t="s">
         <v>261</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K84" s="6">
         <v>1</v>
       </c>
       <c r="L84" s="7">
-        <v>19600</v>
+        <v>38000</v>
       </c>
       <c r="M84" s="7">
-        <v>16660</v>
+        <v>32300</v>
       </c>
       <c r="N84" s="7">
         <v>0</v>
@@ -9162,10 +9160,10 @@
         <v>0</v>
       </c>
       <c r="P84" s="7">
-        <v>16660</v>
+        <v>32300</v>
       </c>
       <c r="Q84" s="7">
-        <v>19600</v>
+        <v>38000</v>
       </c>
       <c r="R84" s="3" t="s">
         <v>27</v>
@@ -9176,62 +9174,60 @@
       <c r="T84" s="7">
         <v>0</v>
       </c>
-      <c r="U84" s="7">
-        <v>0</v>
-      </c>
+      <c r="U84" s="7"/>
       <c r="V84" s="3" t="s">
         <v>264</v>
       </c>
       <c r="W84" s="5" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="X84" s="5"/>
     </row>
-    <row r="85" spans="1:24" ht="28">
+    <row r="85" spans="1:24" ht="22.5">
       <c r="A85" s="20"/>
       <c r="B85" s="3" t="s">
-        <v>677</v>
+        <v>633</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>775</v>
+        <v>732</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>266</v>
+        <v>143</v>
       </c>
       <c r="K85" s="6">
         <v>1</v>
       </c>
       <c r="L85" s="7">
-        <v>25400</v>
+        <v>20000</v>
       </c>
       <c r="M85" s="7">
-        <v>21590</v>
+        <v>17000</v>
       </c>
       <c r="N85" s="7">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7">
-        <v>14025</v>
+        <v>0</v>
       </c>
       <c r="P85" s="7">
-        <v>35615</v>
+        <v>17000</v>
       </c>
       <c r="Q85" s="7">
-        <v>41900</v>
+        <v>20000</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>27</v>
@@ -9244,234 +9240,238 @@
       </c>
       <c r="U85" s="7"/>
       <c r="V85" s="3" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="W85" s="5" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="X85" s="5"/>
     </row>
-    <row r="86" spans="1:24" ht="56">
+    <row r="86" spans="1:24">
       <c r="A86" s="20"/>
-      <c r="B86" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>776</v>
-      </c>
-      <c r="J86" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="K86" s="6">
+      <c r="B86" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="11">
+        <v>1</v>
+      </c>
+      <c r="L86" s="12">
+        <v>20700</v>
+      </c>
+      <c r="M86" s="12">
+        <v>17595</v>
+      </c>
+      <c r="N86" s="12">
+        <v>0</v>
+      </c>
+      <c r="O86" s="12">
+        <v>0</v>
+      </c>
+      <c r="P86" s="12">
+        <v>17595</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>20700</v>
+      </c>
+      <c r="R86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S86" s="12">
+        <v>2500</v>
+      </c>
+      <c r="T86" s="12">
+        <v>0</v>
+      </c>
+      <c r="U86" s="12">
+        <v>7500</v>
+      </c>
+      <c r="V86" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="W86" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="X86" s="10"/>
+    </row>
+    <row r="87" spans="1:24">
+      <c r="A87" s="20"/>
+      <c r="B87" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="11">
         <v>2</v>
       </c>
-      <c r="L86" s="7">
-        <v>29800</v>
-      </c>
-      <c r="M86" s="7">
-        <v>25330</v>
-      </c>
-      <c r="N86" s="7">
-        <v>0</v>
-      </c>
-      <c r="O86" s="7">
-        <v>0</v>
-      </c>
-      <c r="P86" s="7">
-        <v>50660</v>
-      </c>
-      <c r="Q86" s="7">
-        <v>59600</v>
-      </c>
-      <c r="R86" s="3" t="s">
+      <c r="L87" s="12">
+        <v>10000</v>
+      </c>
+      <c r="M87" s="12">
+        <v>8500</v>
+      </c>
+      <c r="N87" s="12">
+        <v>0</v>
+      </c>
+      <c r="O87" s="12">
+        <v>0</v>
+      </c>
+      <c r="P87" s="12">
+        <v>17000</v>
+      </c>
+      <c r="Q87" s="12">
+        <v>20000</v>
+      </c>
+      <c r="R87" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S86" s="7">
-        <v>0</v>
-      </c>
-      <c r="T86" s="7">
-        <v>0</v>
-      </c>
-      <c r="U86" s="7"/>
-      <c r="V86" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W86" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="X86" s="5"/>
+      <c r="S87" s="12">
+        <v>0</v>
+      </c>
+      <c r="T87" s="12">
+        <v>0</v>
+      </c>
+      <c r="U87" s="12">
+        <v>0</v>
+      </c>
+      <c r="V87" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="W87" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="X87" s="10"/>
     </row>
-    <row r="87" spans="1:24" ht="28">
-      <c r="A87" s="20"/>
-      <c r="B87" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="J87" s="5"/>
-      <c r="K87" s="6">
+    <row r="88" spans="1:24" ht="45">
+      <c r="A88" s="20"/>
+      <c r="B88" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="J88" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="K88" s="11">
         <v>1</v>
       </c>
-      <c r="L87" s="7">
-        <v>39900</v>
-      </c>
-      <c r="M87" s="7">
-        <v>33915</v>
-      </c>
-      <c r="N87" s="7">
-        <v>0</v>
-      </c>
-      <c r="O87" s="7">
-        <v>0</v>
-      </c>
-      <c r="P87" s="7">
-        <v>33915</v>
-      </c>
-      <c r="Q87" s="7">
-        <v>39900</v>
-      </c>
-      <c r="R87" s="3" t="s">
+      <c r="L88" s="12">
+        <v>45000</v>
+      </c>
+      <c r="M88" s="12">
+        <v>38250</v>
+      </c>
+      <c r="N88" s="12">
+        <v>0</v>
+      </c>
+      <c r="O88" s="12">
+        <v>0</v>
+      </c>
+      <c r="P88" s="12">
+        <v>38250</v>
+      </c>
+      <c r="Q88" s="12">
+        <v>45000</v>
+      </c>
+      <c r="R88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S87" s="7">
-        <v>0</v>
-      </c>
-      <c r="T87" s="7">
-        <v>0</v>
-      </c>
-      <c r="U87" s="7"/>
-      <c r="V87" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W87" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="X87" s="5"/>
+      <c r="S88" s="12">
+        <v>0</v>
+      </c>
+      <c r="T88" s="12">
+        <v>0</v>
+      </c>
+      <c r="U88" s="12"/>
+      <c r="V88" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W88" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="X88" s="10"/>
     </row>
-    <row r="88" spans="1:24" ht="42">
-      <c r="A88" s="20"/>
-      <c r="B88" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>778</v>
-      </c>
-      <c r="J88" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="K88" s="6">
-        <v>1</v>
-      </c>
-      <c r="L88" s="7">
-        <v>27900</v>
-      </c>
-      <c r="M88" s="7">
-        <v>23715</v>
-      </c>
-      <c r="N88" s="7">
-        <v>27000</v>
-      </c>
-      <c r="O88" s="7">
-        <v>22950</v>
-      </c>
-      <c r="P88" s="7">
-        <v>46665</v>
-      </c>
-      <c r="Q88" s="7">
-        <v>54900</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S88" s="7">
-        <v>0</v>
-      </c>
-      <c r="T88" s="7">
-        <v>0</v>
-      </c>
-      <c r="U88" s="7"/>
-      <c r="V88" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W88" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="X88" s="5"/>
-    </row>
-    <row r="89" spans="1:24" ht="28">
+    <row r="89" spans="1:24" ht="56.25">
       <c r="A89" s="20"/>
       <c r="B89" s="3" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>738</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="K89" s="6">
         <v>1</v>
       </c>
       <c r="L89" s="7">
-        <v>699000</v>
+        <v>15800</v>
       </c>
       <c r="M89" s="7">
-        <v>615120</v>
+        <v>13430</v>
       </c>
       <c r="N89" s="7">
         <v>0</v>
@@ -9480,398 +9480,392 @@
         <v>0</v>
       </c>
       <c r="P89" s="7">
-        <v>615120</v>
+        <v>13430</v>
       </c>
       <c r="Q89" s="7">
-        <v>699000</v>
+        <v>15800</v>
       </c>
       <c r="R89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S89" s="7">
+        <v>3000</v>
+      </c>
+      <c r="T89" s="7">
+        <v>30000</v>
+      </c>
+      <c r="U89" s="7">
+        <v>3000</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="X89" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
+      <c r="A90" s="20"/>
+      <c r="B90" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="J90" s="10"/>
+      <c r="K90" s="11">
+        <v>1</v>
+      </c>
+      <c r="L90" s="12">
+        <v>5570</v>
+      </c>
+      <c r="M90" s="12">
+        <v>4734</v>
+      </c>
+      <c r="N90" s="12">
+        <v>0</v>
+      </c>
+      <c r="O90" s="12">
+        <v>0</v>
+      </c>
+      <c r="P90" s="12">
+        <v>4734</v>
+      </c>
+      <c r="Q90" s="12">
+        <v>5570</v>
+      </c>
+      <c r="R90" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S90" s="12">
+        <v>3000</v>
+      </c>
+      <c r="T90" s="12">
+        <v>0</v>
+      </c>
+      <c r="U90" s="12">
+        <v>3000</v>
+      </c>
+      <c r="V90" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="W90" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="X90" s="10"/>
+    </row>
+    <row r="91" spans="1:24">
+      <c r="A91" s="19"/>
+      <c r="B91" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="11">
+        <v>1</v>
+      </c>
+      <c r="L91" s="12">
+        <v>59000</v>
+      </c>
+      <c r="M91" s="12">
+        <v>50150</v>
+      </c>
+      <c r="N91" s="12">
+        <v>0</v>
+      </c>
+      <c r="O91" s="12">
+        <v>0</v>
+      </c>
+      <c r="P91" s="12">
+        <v>50150</v>
+      </c>
+      <c r="Q91" s="12">
+        <v>59000</v>
+      </c>
+      <c r="R91" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S89" s="7">
-        <v>0</v>
-      </c>
-      <c r="T89" s="7">
-        <v>0</v>
-      </c>
-      <c r="U89" s="7"/>
-      <c r="V89" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W89" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="X89" s="5"/>
+      <c r="S91" s="12">
+        <v>0</v>
+      </c>
+      <c r="T91" s="12">
+        <v>0</v>
+      </c>
+      <c r="U91" s="12"/>
+      <c r="V91" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="W91" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="X91" s="10"/>
     </row>
-    <row r="90" spans="1:24" ht="28">
-      <c r="A90" s="20"/>
-      <c r="B90" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="J90" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="K90" s="6">
-        <v>1</v>
-      </c>
-      <c r="L90" s="7">
-        <v>38000</v>
-      </c>
-      <c r="M90" s="7">
-        <v>32300</v>
-      </c>
-      <c r="N90" s="7">
-        <v>0</v>
-      </c>
-      <c r="O90" s="7">
-        <v>0</v>
-      </c>
-      <c r="P90" s="7">
-        <v>32300</v>
-      </c>
-      <c r="Q90" s="7">
-        <v>38000</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S90" s="7">
-        <v>0</v>
-      </c>
-      <c r="T90" s="7">
-        <v>0</v>
-      </c>
-      <c r="U90" s="7"/>
-      <c r="V90" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W90" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="X90" s="5"/>
-    </row>
-    <row r="91" spans="1:24" ht="28">
-      <c r="A91" s="19"/>
-      <c r="B91" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>781</v>
-      </c>
-      <c r="J91" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="K91" s="6">
-        <v>1</v>
-      </c>
-      <c r="L91" s="7">
-        <v>38000</v>
-      </c>
-      <c r="M91" s="7">
-        <v>32300</v>
-      </c>
-      <c r="N91" s="7">
-        <v>0</v>
-      </c>
-      <c r="O91" s="7">
-        <v>0</v>
-      </c>
-      <c r="P91" s="7">
-        <v>32300</v>
-      </c>
-      <c r="Q91" s="7">
-        <v>38000</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S91" s="7">
-        <v>0</v>
-      </c>
-      <c r="T91" s="7">
-        <v>0</v>
-      </c>
-      <c r="U91" s="7"/>
-      <c r="V91" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="W91" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="X91" s="5"/>
-    </row>
-    <row r="92" spans="1:24" ht="70">
+    <row r="92" spans="1:24" ht="22.5">
       <c r="A92" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="I92" s="9" t="s">
-        <v>782</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="K92" s="11">
+      <c r="B92" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92" s="6">
         <v>1</v>
       </c>
-      <c r="L92" s="12">
-        <v>85000</v>
-      </c>
-      <c r="M92" s="12">
-        <v>72250</v>
-      </c>
-      <c r="N92" s="12">
-        <v>0</v>
-      </c>
-      <c r="O92" s="12">
-        <v>0</v>
-      </c>
-      <c r="P92" s="12">
-        <v>72250</v>
-      </c>
-      <c r="Q92" s="12">
-        <v>85000</v>
-      </c>
-      <c r="R92" s="8" t="s">
+      <c r="L92" s="7">
+        <v>25100</v>
+      </c>
+      <c r="M92" s="7">
+        <v>22080</v>
+      </c>
+      <c r="N92" s="7">
+        <v>0</v>
+      </c>
+      <c r="O92" s="7">
+        <v>0</v>
+      </c>
+      <c r="P92" s="7">
+        <v>22080</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>25100</v>
+      </c>
+      <c r="R92" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S92" s="12">
-        <v>0</v>
-      </c>
-      <c r="T92" s="12">
-        <v>0</v>
-      </c>
-      <c r="U92" s="12">
-        <v>0</v>
-      </c>
-      <c r="V92" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="W92" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="X92" s="10"/>
+      <c r="S92" s="7">
+        <v>0</v>
+      </c>
+      <c r="T92" s="7">
+        <v>0</v>
+      </c>
+      <c r="U92" s="7">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="X92" s="5"/>
     </row>
-    <row r="93" spans="1:24" ht="98">
+    <row r="93" spans="1:24">
       <c r="A93" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="K93" s="6">
+      <c r="B93" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="J93" s="10"/>
+      <c r="K93" s="11">
         <v>1</v>
       </c>
-      <c r="L93" s="7">
-        <v>28000</v>
-      </c>
-      <c r="M93" s="7">
-        <v>23800</v>
-      </c>
-      <c r="N93" s="7">
-        <v>22000</v>
-      </c>
-      <c r="O93" s="7">
-        <v>18700</v>
-      </c>
-      <c r="P93" s="7">
-        <v>42500</v>
-      </c>
-      <c r="Q93" s="7">
-        <v>50000</v>
-      </c>
-      <c r="R93" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="S93" s="7">
-        <v>3000</v>
-      </c>
-      <c r="T93" s="7">
-        <v>50000</v>
-      </c>
-      <c r="U93" s="7">
-        <v>0</v>
-      </c>
-      <c r="V93" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="W93" s="5" t="s">
-        <v>584</v>
-      </c>
-      <c r="X93" s="5" t="s">
-        <v>279</v>
-      </c>
+      <c r="L93" s="12">
+        <v>46500</v>
+      </c>
+      <c r="M93" s="12">
+        <v>39520</v>
+      </c>
+      <c r="N93" s="12">
+        <v>0</v>
+      </c>
+      <c r="O93" s="12">
+        <v>0</v>
+      </c>
+      <c r="P93" s="12">
+        <v>39520</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>46500</v>
+      </c>
+      <c r="R93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S93" s="12">
+        <v>0</v>
+      </c>
+      <c r="T93" s="12">
+        <v>0</v>
+      </c>
+      <c r="U93" s="12">
+        <v>0</v>
+      </c>
+      <c r="V93" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="W93" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="X93" s="10"/>
     </row>
-    <row r="94" spans="1:24" ht="70">
+    <row r="94" spans="1:24" ht="33.75">
       <c r="A94" s="14" t="s">
         <v>280</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="8" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>281</v>
+        <v>215</v>
       </c>
       <c r="K94" s="11">
         <v>1</v>
       </c>
       <c r="L94" s="12">
-        <v>15800</v>
+        <v>48000</v>
       </c>
       <c r="M94" s="12">
-        <v>13430</v>
+        <v>40800</v>
       </c>
       <c r="N94" s="12">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="O94" s="12">
-        <v>11560</v>
+        <v>0</v>
       </c>
       <c r="P94" s="12">
-        <v>24990</v>
+        <v>40800</v>
       </c>
       <c r="Q94" s="12">
-        <v>29400</v>
+        <v>48000</v>
       </c>
       <c r="R94" s="8" t="s">
         <v>39</v>
       </c>
       <c r="S94" s="12">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="T94" s="12">
-        <v>30000</v>
-      </c>
-      <c r="U94" s="12">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U94" s="12"/>
       <c r="V94" s="8" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="W94" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="X94" s="10" t="s">
-        <v>283</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="X94" s="10"/>
     </row>
-    <row r="95" spans="1:24" ht="28">
+    <row r="95" spans="1:24">
       <c r="A95" s="13" t="s">
         <v>284</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>687</v>
+        <v>616</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>285</v>
+        <v>91</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3" t="s">
-        <v>486</v>
+        <v>415</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="6">
         <v>1</v>
       </c>
       <c r="L95" s="7">
-        <v>33900</v>
+        <v>34900</v>
       </c>
       <c r="M95" s="7">
-        <v>28810</v>
+        <v>29660</v>
       </c>
       <c r="N95" s="7">
         <v>0</v>
@@ -9880,132 +9874,130 @@
         <v>0</v>
       </c>
       <c r="P95" s="7">
-        <v>28810</v>
+        <v>29660</v>
       </c>
       <c r="Q95" s="7">
-        <v>33900</v>
+        <v>34900</v>
       </c>
       <c r="R95" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S95" s="7">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T95" s="7">
-        <v>50000</v>
-      </c>
-      <c r="U95" s="7">
-        <v>3000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U95" s="7"/>
       <c r="V95" s="3" t="s">
-        <v>286</v>
+        <v>88</v>
       </c>
       <c r="W95" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="X95" s="5"/>
+        <v>515</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="96" spans="1:24" ht="56">
+    <row r="96" spans="1:24" ht="33.75">
       <c r="A96" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K96" s="11">
+      <c r="B96" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="K96" s="6">
         <v>1</v>
       </c>
-      <c r="L96" s="12">
-        <v>12500</v>
-      </c>
-      <c r="M96" s="12">
-        <v>10625</v>
-      </c>
-      <c r="N96" s="12">
-        <v>0</v>
-      </c>
-      <c r="O96" s="12">
-        <v>0</v>
-      </c>
-      <c r="P96" s="12">
-        <v>10625</v>
-      </c>
-      <c r="Q96" s="12">
-        <v>12500</v>
-      </c>
-      <c r="R96" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="S96" s="12">
-        <v>2500</v>
-      </c>
-      <c r="T96" s="12">
-        <v>0</v>
-      </c>
-      <c r="U96" s="12">
-        <v>2500</v>
-      </c>
-      <c r="V96" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="W96" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="X96" s="10"/>
+      <c r="L96" s="7">
+        <v>27900</v>
+      </c>
+      <c r="M96" s="7">
+        <v>23715</v>
+      </c>
+      <c r="N96" s="7">
+        <v>27000</v>
+      </c>
+      <c r="O96" s="7">
+        <v>22950</v>
+      </c>
+      <c r="P96" s="7">
+        <v>46665</v>
+      </c>
+      <c r="Q96" s="7">
+        <v>54900</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S96" s="7">
+        <v>0</v>
+      </c>
+      <c r="T96" s="7">
+        <v>0</v>
+      </c>
+      <c r="U96" s="7"/>
+      <c r="V96" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="X96" s="5"/>
     </row>
-    <row r="97" spans="1:24" ht="56">
+    <row r="97" spans="1:24" ht="45">
       <c r="A97" s="16"/>
       <c r="B97" s="8" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>787</v>
+        <v>728</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K97" s="11">
         <v>1</v>
       </c>
       <c r="L97" s="12">
-        <v>12500</v>
+        <v>29800</v>
       </c>
       <c r="M97" s="12">
-        <v>10625</v>
+        <v>25330</v>
       </c>
       <c r="N97" s="12">
         <v>0</v>
@@ -10014,13 +10006,13 @@
         <v>0</v>
       </c>
       <c r="P97" s="12">
-        <v>10625</v>
+        <v>25330</v>
       </c>
       <c r="Q97" s="12">
-        <v>12500</v>
+        <v>29800</v>
       </c>
       <c r="R97" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S97" s="12">
         <v>0</v>
@@ -10028,48 +10020,48 @@
       <c r="T97" s="12">
         <v>0</v>
       </c>
-      <c r="U97" s="12"/>
+      <c r="U97" s="12">
+        <v>0</v>
+      </c>
       <c r="V97" s="8" t="s">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="W97" s="10" t="s">
-        <v>588</v>
+        <v>528</v>
       </c>
       <c r="X97" s="10"/>
     </row>
-    <row r="98" spans="1:24" ht="56">
+    <row r="98" spans="1:24">
       <c r="A98" s="16"/>
       <c r="B98" s="8" t="s">
-        <v>690</v>
+        <v>634</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>290</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="J98" s="10"/>
       <c r="K98" s="11">
         <v>1</v>
       </c>
       <c r="L98" s="12">
-        <v>12500</v>
+        <v>28900</v>
       </c>
       <c r="M98" s="12">
-        <v>10625</v>
+        <v>24500</v>
       </c>
       <c r="N98" s="12">
         <v>0</v>
@@ -10078,13 +10070,13 @@
         <v>0</v>
       </c>
       <c r="P98" s="12">
-        <v>10625</v>
+        <v>24500</v>
       </c>
       <c r="Q98" s="12">
-        <v>12500</v>
+        <v>28900</v>
       </c>
       <c r="R98" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="S98" s="12">
         <v>0</v>
@@ -10092,46 +10084,48 @@
       <c r="T98" s="12">
         <v>0</v>
       </c>
-      <c r="U98" s="12"/>
+      <c r="U98" s="12">
+        <v>0</v>
+      </c>
       <c r="V98" s="8" t="s">
-        <v>289</v>
+        <v>146</v>
       </c>
       <c r="W98" s="10" t="s">
-        <v>589</v>
+        <v>533</v>
       </c>
       <c r="X98" s="10"/>
     </row>
-    <row r="99" spans="1:24" ht="28">
+    <row r="99" spans="1:24">
       <c r="A99" s="16"/>
       <c r="B99" s="8" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>291</v>
+        <v>172</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
       <c r="J99" s="10"/>
       <c r="K99" s="11">
         <v>1</v>
       </c>
       <c r="L99" s="12">
-        <v>59000</v>
+        <v>27800</v>
       </c>
       <c r="M99" s="12">
-        <v>50150</v>
+        <v>23630</v>
       </c>
       <c r="N99" s="12">
         <v>0</v>
@@ -10140,124 +10134,126 @@
         <v>0</v>
       </c>
       <c r="P99" s="12">
-        <v>50150</v>
+        <v>23630</v>
       </c>
       <c r="Q99" s="12">
-        <v>59000</v>
+        <v>27800</v>
       </c>
       <c r="R99" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S99" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T99" s="12">
         <v>0</v>
       </c>
-      <c r="U99" s="12"/>
+      <c r="U99" s="12">
+        <v>3000</v>
+      </c>
       <c r="V99" s="8" t="s">
-        <v>289</v>
+        <v>173</v>
       </c>
       <c r="W99" s="10" t="s">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="X99" s="10"/>
     </row>
-    <row r="100" spans="1:24" ht="28">
+    <row r="100" spans="1:24" ht="22.5">
       <c r="A100" s="16"/>
-      <c r="B100" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="I100" s="9" t="s">
-        <v>790</v>
-      </c>
-      <c r="J100" s="10"/>
-      <c r="K100" s="11">
+      <c r="B100" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K100" s="6">
         <v>1</v>
       </c>
-      <c r="L100" s="12">
-        <v>46500</v>
-      </c>
-      <c r="M100" s="12">
-        <v>39520</v>
-      </c>
-      <c r="N100" s="12">
-        <v>0</v>
-      </c>
-      <c r="O100" s="12">
-        <v>0</v>
-      </c>
-      <c r="P100" s="12">
-        <v>39520</v>
-      </c>
-      <c r="Q100" s="12">
-        <v>46500</v>
-      </c>
-      <c r="R100" s="8" t="s">
+      <c r="L100" s="7">
+        <v>73800</v>
+      </c>
+      <c r="M100" s="7">
+        <v>64940</v>
+      </c>
+      <c r="N100" s="7">
+        <v>0</v>
+      </c>
+      <c r="O100" s="7">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7">
+        <v>64940</v>
+      </c>
+      <c r="Q100" s="7">
+        <v>73800</v>
+      </c>
+      <c r="R100" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S100" s="12">
-        <v>0</v>
-      </c>
-      <c r="T100" s="12">
-        <v>0</v>
-      </c>
-      <c r="U100" s="12"/>
-      <c r="V100" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="W100" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="X100" s="10"/>
+      <c r="S100" s="7">
+        <v>0</v>
+      </c>
+      <c r="T100" s="7">
+        <v>0</v>
+      </c>
+      <c r="U100" s="7"/>
+      <c r="V100" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="W100" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="X100" s="5"/>
     </row>
-    <row r="101" spans="1:24" ht="28">
+    <row r="101" spans="1:24">
       <c r="A101" s="16"/>
       <c r="B101" s="8" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="J101" s="10"/>
       <c r="K101" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L101" s="12">
-        <v>29000</v>
+        <v>27800</v>
       </c>
       <c r="M101" s="12">
-        <v>24650</v>
+        <v>23630</v>
       </c>
       <c r="N101" s="12">
         <v>0</v>
@@ -10266,124 +10262,126 @@
         <v>0</v>
       </c>
       <c r="P101" s="12">
-        <v>24650</v>
+        <v>47260</v>
       </c>
       <c r="Q101" s="12">
-        <v>29000</v>
+        <v>55600</v>
       </c>
       <c r="R101" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S101" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T101" s="12">
         <v>0</v>
       </c>
       <c r="U101" s="12"/>
       <c r="V101" s="8" t="s">
-        <v>289</v>
+        <v>246</v>
       </c>
       <c r="W101" s="10" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="X101" s="10"/>
     </row>
-    <row r="102" spans="1:24" ht="56">
+    <row r="102" spans="1:24" ht="45">
       <c r="A102" s="16"/>
-      <c r="B102" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="I102" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="K102" s="11">
+      <c r="B102" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K102" s="6">
         <v>1</v>
       </c>
-      <c r="L102" s="12">
-        <v>45000</v>
-      </c>
-      <c r="M102" s="12">
-        <v>38250</v>
-      </c>
-      <c r="N102" s="12">
-        <v>0</v>
-      </c>
-      <c r="O102" s="12">
-        <v>0</v>
-      </c>
-      <c r="P102" s="12">
-        <v>38250</v>
-      </c>
-      <c r="Q102" s="12">
-        <v>45000</v>
-      </c>
-      <c r="R102" s="8" t="s">
+      <c r="L102" s="7">
+        <v>29800</v>
+      </c>
+      <c r="M102" s="7">
+        <v>26220</v>
+      </c>
+      <c r="N102" s="7">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>0</v>
+      </c>
+      <c r="P102" s="7">
+        <v>26220</v>
+      </c>
+      <c r="Q102" s="7">
+        <v>29800</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S102" s="12">
-        <v>0</v>
-      </c>
-      <c r="T102" s="12">
-        <v>0</v>
-      </c>
-      <c r="U102" s="12"/>
-      <c r="V102" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="W102" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="X102" s="10"/>
+      <c r="S102" s="7">
+        <v>0</v>
+      </c>
+      <c r="T102" s="7">
+        <v>0</v>
+      </c>
+      <c r="U102" s="7">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="X102" s="5"/>
     </row>
-    <row r="103" spans="1:24" ht="28">
+    <row r="103" spans="1:24">
       <c r="A103" s="17"/>
       <c r="B103" s="8" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>494</v>
+        <v>447</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>793</v>
+        <v>747</v>
       </c>
       <c r="J103" s="10"/>
       <c r="K103" s="11">
         <v>1</v>
       </c>
       <c r="L103" s="12">
-        <v>79800</v>
+        <v>29900</v>
       </c>
       <c r="M103" s="12">
-        <v>67830</v>
+        <v>25415</v>
       </c>
       <c r="N103" s="12">
         <v>0</v>
@@ -10392,30 +10390,35 @@
         <v>0</v>
       </c>
       <c r="P103" s="12">
-        <v>67830</v>
+        <v>25415</v>
       </c>
       <c r="Q103" s="12">
-        <v>79800</v>
+        <v>29900</v>
       </c>
       <c r="R103" s="8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="S103" s="12">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T103" s="12">
-        <v>0</v>
-      </c>
-      <c r="U103" s="12"/>
+        <v>50000</v>
+      </c>
+      <c r="U103" s="12">
+        <v>3000</v>
+      </c>
       <c r="V103" s="8" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="W103" s="10" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="X103" s="10"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:X103">
+    <sortCondition ref="I3:I103"/>
+  </sortState>
   <mergeCells count="10">
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="A79:A80"/>

--- a/b_excel_automation/주문목록20221112.xlsx
+++ b/b_excel_automation/주문목록20221112.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\python\fastcampus-python-automation\b_excel_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E75C89-73B6-492E-8D98-3045AD9AE120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3E2C91-4ADA-496F-B14C-19C466C3D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2430" windowWidth="24375" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27135" yWindow="1785" windowWidth="24375" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sendRequest" sheetId="1" r:id="rId1"/>
@@ -3647,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
